--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P25_trail0 Features.xlsx
@@ -4699,7 +4699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4710,29 +4710,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4753,115 +4751,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4878,72 +4866,66 @@
         <v>3.769424669416551e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.045026630893906</v>
+        <v>2.266337480689346e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.627870811603186</v>
+        <v>7.76873982822963e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.266337480689346e-06</v>
+        <v>0.094500577723884</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.76873982822963e-06</v>
+        <v>0.2484663892358042</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.094500577723884</v>
+        <v>0.07051706595529822</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2484663892358042</v>
+        <v>1.750830424995609</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07051706595529822</v>
+        <v>1.798812620044027</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.684734067200617</v>
+        <v>4.057710403772592</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.798812620044027</v>
+        <v>1.182395765783891e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.057710403772592</v>
+        <v>47483116.61220548</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.182395765783891e-14</v>
+        <v>2.412399952890026e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>47483116.61220548</v>
+        <v>26.65884313197547</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.412399952890026e-06</v>
+        <v>0.0001509956039108113</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>26.65884313197547</v>
+        <v>9.256822325659801</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001509956039108113</v>
+        <v>1.219103763204212</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.256822325659801</v>
+        <v>0.01293862599946436</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.219103763204212</v>
+        <v>2.839577342747036</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01293862599946436</v>
+        <v>0.9563967110269942</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.839577342747036</v>
+        <v>1.69447663386082</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9563967110269942</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.69447663386082</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2085640280552142</v>
       </c>
     </row>
@@ -4958,72 +4940,66 @@
         <v>2.973447808181018e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.90220273328007</v>
+        <v>1.766835839342122e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8.740382441107966</v>
+        <v>7.799947485769458e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.766835839342122e-06</v>
+        <v>0.09178030030033159</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.799947485769458e-06</v>
+        <v>0.2401443374401498</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09178030030033159</v>
+        <v>0.06595713660387521</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2401443374401498</v>
+        <v>1.76101326016048</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06595713660387521</v>
+        <v>1.813853443631907</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.693902220785607</v>
+        <v>3.966957615481846</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.813853443631907</v>
+        <v>1.237114343079006e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.966957615481846</v>
+        <v>46537015.52074448</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.237114343079006e-14</v>
+        <v>2.522616723069357e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>46537015.52074448</v>
+        <v>26.79210879494831</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.522616723069357e-06</v>
+        <v>0.0001542268285526229</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>26.79210879494831</v>
+        <v>7.988233262923494</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001542268285526229</v>
+        <v>1.590003785235046</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.988233262923494</v>
+        <v>0.009841502436345727</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.590003785235046</v>
+        <v>3.030120772888131</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009841502436345727</v>
+        <v>0.9558436602459811</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.030120772888131</v>
+        <v>1.712812568045131</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9558436602459811</v>
+        <v>16</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.712812568045131</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2031957567850542</v>
       </c>
     </row>
@@ -5038,72 +5014,66 @@
         <v>2.375995480018735e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.736273197613337</v>
+        <v>1.385855494900479e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.701723027444968</v>
+        <v>7.82400530917945e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.385855494900479e-06</v>
+        <v>0.08906825993269583</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.82400530917945e-06</v>
+        <v>0.2290729252992095</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08906825993269583</v>
+        <v>0.06027934646283795</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2290729252992095</v>
+        <v>1.768797506909321</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06027934646283795</v>
+        <v>1.671779527381248</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.70646364441351</v>
+        <v>4.064543904101255</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.671779527381248</v>
+        <v>1.178423310378758e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.064543904101255</v>
+        <v>49245905.13993709</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.178423310378758e-14</v>
+        <v>2.384262256361987e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>49245905.13993709</v>
+        <v>28.57864100902975</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.384262256361987e-06</v>
+        <v>0.0001326605983648461</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>28.57864100902975</v>
+        <v>7.72133247930789</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001326605983648461</v>
+        <v>1.29531006676793</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.72133247930789</v>
+        <v>0.007909088931361895</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.29531006676793</v>
+        <v>3.0637518311698</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007909088931361895</v>
+        <v>0.9579241021966945</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.0637518311698</v>
+        <v>1.646697500962642</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9579241021966945</v>
+        <v>16</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.646697500962642</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2341066045695067</v>
       </c>
     </row>
@@ -5118,72 +5088,66 @@
         <v>1.933261178359186e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.581001015434754</v>
+        <v>1.096083560258877e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6.793478514922157</v>
+        <v>7.84269849177573e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.096083560258877e-06</v>
+        <v>0.08511304785273224</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.84269849177573e-06</v>
+        <v>0.2149606137972689</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.08511304785273224</v>
+        <v>0.05334823257043796</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2149606137972689</v>
+        <v>1.760269756830924</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05334823257043796</v>
+        <v>1.762345549106212</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.693058901283482</v>
+        <v>3.943557709209133</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.762345549106212</v>
+        <v>1.121237201538738e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.943557709209133</v>
+        <v>51339974.71178728</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.121237201538738e-14</v>
+        <v>2.27849265606065e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>51339974.71178728</v>
+        <v>29.55349170975403</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.27849265606065e-06</v>
+        <v>0.0001399236012957487</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>29.55349170975403</v>
+        <v>8.680228697731867</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001399236012957487</v>
+        <v>1.271129041135209</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.680228697731867</v>
+        <v>0.01054273546923315</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.271129041135209</v>
+        <v>2.812591363420709</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01054273546923315</v>
+        <v>0.9587990665492546</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.812591363420709</v>
+        <v>1.71483866326382</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9587990665492546</v>
+        <v>16</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.71483866326382</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2583613598113525</v>
       </c>
     </row>
@@ -5198,72 +5162,66 @@
         <v>1.601821896382062e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-2.456434161721204</v>
+        <v>8.887717539932929e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6.232892846934309</v>
+        <v>7.857241750563403e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.887717539932929e-07</v>
+        <v>0.08002255575099453</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.857241750563403e-06</v>
+        <v>0.2079735791455193</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.08002255575099453</v>
+        <v>0.04958178666728801</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2079735791455193</v>
+        <v>1.765972396250729</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04958178666728801</v>
+        <v>1.896530710538753</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.70143947550862</v>
+        <v>3.725542091879375</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.896530710538753</v>
+        <v>1.256304602869165e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.725542091879375</v>
+        <v>45578837.82902239</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.256304602869165e-14</v>
+        <v>2.566665721596201e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45578837.82902239</v>
+        <v>26.09885446330419</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.566665721596201e-06</v>
+        <v>0.0001367910386675064</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>26.09885446330419</v>
+        <v>8.182010889180333</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001367910386675064</v>
+        <v>1.44048846488824</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.182010889180333</v>
+        <v>0.009157517420571231</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.44048846488824</v>
+        <v>2.940470709171717</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009157517420571231</v>
+        <v>0.958437233301681</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.940470709171717</v>
+        <v>1.68753498276625</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.958437233301681</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.68753498276625</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2608639482002563</v>
       </c>
     </row>
@@ -5278,72 +5236,66 @@
         <v>1.342412439442483e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-2.331462618012816</v>
+        <v>7.439144060037309e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5.872577339103158</v>
+        <v>7.868625826389494e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.439144060037309e-07</v>
+        <v>0.07524593569652561</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.868625826389494e-06</v>
+        <v>0.2137448856226751</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.07524593569652561</v>
+        <v>0.05129465234400687</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2137448856226751</v>
+        <v>1.769766184622626</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05129465234400687</v>
+        <v>1.781165521723933</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.697579752514731</v>
+        <v>3.776013647639459</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.781165521723933</v>
+        <v>1.222944615863841e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.776013647639459</v>
+        <v>46534133.57139074</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.222944615863841e-14</v>
+        <v>2.513923436607187e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>46534133.57139074</v>
+        <v>26.48195562968997</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.513923436607187e-06</v>
+        <v>0.0001327023078953999</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>26.48195562968997</v>
+        <v>8.196453339664865</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001327023078953999</v>
+        <v>1.569914509415007</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.196453339664865</v>
+        <v>0.008915186191929004</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.569914509415007</v>
+        <v>3.015668808316899</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008915186191929004</v>
+        <v>0.9594455936276522</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.015668808316899</v>
+        <v>1.688923928609113</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9594455936276522</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.688923928609113</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2775943543487543</v>
       </c>
     </row>
@@ -5358,72 +5310,66 @@
         <v>1.129529881353969e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-2.137941659057756</v>
+        <v>6.355757477794555e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5.308728584943573</v>
+        <v>7.877657937768258e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.355757477794555e-07</v>
+        <v>0.07135241403023102</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.877657937768258e-06</v>
+        <v>0.228648428706729</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.07135241403023102</v>
+        <v>0.0573221792459354</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.228648428706729</v>
+        <v>1.76678085547733</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0573221792459354</v>
+        <v>1.725867394495754</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.693267998416591</v>
+        <v>3.898806823024609</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.725867394495754</v>
+        <v>1.147124261482002e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.898806823024609</v>
+        <v>48305359.41621149</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.147124261482002e-14</v>
+        <v>2.413033610953584e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>48305359.41621149</v>
+        <v>26.76708640038712</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.413033610953584e-06</v>
+        <v>0.0001297901761499989</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>26.76708640038712</v>
+        <v>7.973927873733425</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001297901761499989</v>
+        <v>1.630610858433956</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.973927873733425</v>
+        <v>0.008252517005448903</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.630610858433956</v>
+        <v>3.050928598520148</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008252517005448903</v>
+        <v>0.9603924485944908</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.050928598520148</v>
+        <v>1.714569038737714</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9603924485944908</v>
+        <v>18</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.714569038737714</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2827043786985001</v>
       </c>
     </row>
@@ -5438,72 +5384,66 @@
         <v>9.536847462817677e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.816289721303218</v>
+        <v>5.406763264111274e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>4.169959308703887</v>
+        <v>7.884859153537962e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.406763264111274e-07</v>
+        <v>0.06705643748644043</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.884859153537962e-06</v>
+        <v>0.2439980587502069</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.06705643748644043</v>
+        <v>0.06396923685912136</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2439980587502069</v>
+        <v>1.761095481666088</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.06396923685912136</v>
+        <v>1.677642791654197</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.690150467142108</v>
+        <v>4.083401218487259</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.677642791654197</v>
+        <v>1.034869670187297e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.083401218487259</v>
+        <v>53566322.7790842</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.034869670187297e-14</v>
+        <v>2.174308585997249e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>53566322.7790842</v>
+        <v>29.69404256865513</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.174308585997249e-06</v>
+        <v>0.0001306826915046244</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>29.69404256865513</v>
+        <v>8.018131997786512</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001306826915046244</v>
+        <v>1.555102654782691</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.018131997786512</v>
+        <v>0.008401647833128238</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.555102654782691</v>
+        <v>2.974454428086086</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008401647833128238</v>
+        <v>0.9600287110312432</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.974454428086086</v>
+        <v>1.713702197226119</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9600287110312432</v>
+        <v>18</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.713702197226119</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2755494409626488</v>
       </c>
     </row>
@@ -5518,72 +5458,66 @@
         <v>8.16457070142963e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.397062506551084</v>
+        <v>4.515936236072645e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.63563320524336</v>
+        <v>7.890541252274951e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.515936236072645e-07</v>
+        <v>0.06199447510854457</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.890541252274951e-06</v>
+        <v>0.2527701989085979</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.06199447510854457</v>
+        <v>0.06766803509207824</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2527701989085979</v>
+        <v>1.781586022966273</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.06766803509207824</v>
+        <v>1.983427697949617</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.721238404946185</v>
+        <v>3.853474045096561</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.983427697949617</v>
+        <v>1.129433706895779e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.853474045096561</v>
+        <v>48893356.42499417</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.129433706895779e-14</v>
+        <v>2.393680290844936e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>48893356.42499417</v>
+        <v>26.99979384012185</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.393680290844936e-06</v>
+        <v>0.0001269110111086875</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>26.99979384012185</v>
+        <v>7.509156420528208</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001269110111086875</v>
+        <v>1.46930334863304</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.509156420528208</v>
+        <v>0.007156185773898091</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.46930334863304</v>
+        <v>3.026932847835922</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.007156185773898091</v>
+        <v>0.9588769481659382</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.026932847835922</v>
+        <v>1.685632204767526</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9588769481659382</v>
+        <v>15</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.685632204767526</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2492359271965268</v>
       </c>
     </row>
@@ -5598,72 +5532,66 @@
         <v>7.151058709648996e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.9783279953537053</v>
+        <v>3.754857917340369e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.215842108615103</v>
+        <v>7.895143433641551e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.754857917340369e-07</v>
+        <v>0.05907025847302029</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.895143433641551e-06</v>
+        <v>0.2610076137710142</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.05907025847302029</v>
+        <v>0.07153731190850467</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2610076137710142</v>
+        <v>1.782154568425612</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.07153731190850467</v>
+        <v>1.803854503160539</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.722101816156057</v>
+        <v>3.692402119877928</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.803854503160539</v>
+        <v>1.238772760675244e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.692402119877928</v>
+        <v>45000201.38770416</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.238772760675244e-14</v>
+        <v>2.589168002926959e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45000201.38770416</v>
+        <v>25.08537293041812</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.589168002926959e-06</v>
+        <v>0.0001328472554747264</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>25.08537293041812</v>
+        <v>7.515970792614288</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001328472554747264</v>
+        <v>1.319121190354192</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.515970792614288</v>
+        <v>0.007504517144798678</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.319121190354192</v>
+        <v>3.01929098006197</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.007504517144798678</v>
+        <v>0.9590456130814937</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.01929098006197</v>
+        <v>1.700283895261857</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9590456130814937</v>
+        <v>15</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.700283895261857</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2221000726583934</v>
       </c>
     </row>
@@ -5678,72 +5606,66 @@
         <v>6.439885852722385e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.6641839181040654</v>
+        <v>3.13933693907499e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.3132557025177309</v>
+        <v>7.899091112609477e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.13933693907499e-07</v>
+        <v>0.05799587052410561</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.899091112609477e-06</v>
+        <v>0.2714966015943193</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.05799587052410561</v>
+        <v>0.07702014500698232</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2714966015943193</v>
+        <v>1.779730959941901</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.07702014500698232</v>
+        <v>1.843195071323299</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.715121983010552</v>
+        <v>3.872541762773984</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.843195071323299</v>
+        <v>1.126204894103188e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.872541762773984</v>
+        <v>50692188.36607444</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.126204894103188e-14</v>
+        <v>2.316199317330137e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>50692188.36607444</v>
+        <v>28.94006420429863</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.316199317330137e-06</v>
+        <v>0.000133873630696565</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>28.94006420429863</v>
+        <v>8.793222165807068</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000133873630696565</v>
+        <v>1.191326797242204</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.793222165807068</v>
+        <v>0.01035121034158624</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.191326797242204</v>
+        <v>2.882137651373705</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01035121034158624</v>
+        <v>0.9588727418120933</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.882137651373705</v>
+        <v>1.695568815562893</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9588727418120933</v>
+        <v>16</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.695568815562893</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2335049969887983</v>
       </c>
     </row>
@@ -5758,72 +5680,66 @@
         <v>5.944432924975056e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.4630103961948824</v>
+        <v>2.729987828584482e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.1762913944319324</v>
+        <v>7.902700779281848e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.729987828584482e-07</v>
+        <v>0.05943141582202454</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.902700779281848e-06</v>
+        <v>0.2877732262885966</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05943141582202454</v>
+        <v>0.08631350192214796</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2877732262885966</v>
+        <v>1.781018529951832</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.08631350192214796</v>
+        <v>1.879572733120859</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.715830193804035</v>
+        <v>3.856310453784219</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.879572733120859</v>
+        <v>1.135705296039537e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.856310453784219</v>
+        <v>50521169.10056597</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.135705296039537e-14</v>
+        <v>2.322109428717527e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>50521169.10056597</v>
+        <v>28.98761167991514</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.322109428717527e-06</v>
+        <v>0.0001254431951242711</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>28.98761167991514</v>
+        <v>8.27034834838339</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001254431951242711</v>
+        <v>1.216938955235985</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.27034834838339</v>
+        <v>0.00858014667886901</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.216938955235985</v>
+        <v>2.982122801066172</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.00858014667886901</v>
+        <v>0.9585725716385113</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.982122801066172</v>
+        <v>1.645957005062773</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9585725716385113</v>
+        <v>13</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.645957005062773</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2334657026973029</v>
       </c>
     </row>
@@ -5838,72 +5754,66 @@
         <v>5.585145270591122e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.3265127705453921</v>
+        <v>2.46912719594564e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.5023193459677966</v>
+        <v>7.906159777984687e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.46912719594564e-07</v>
+        <v>0.05998291124061283</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.906159777984687e-06</v>
+        <v>0.3033709673692386</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.05998291124061283</v>
+        <v>0.09562304506465825</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.3033709673692386</v>
+        <v>1.754377074039614</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.09562304506465825</v>
+        <v>1.770943681730025</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.681682587752147</v>
+        <v>3.939654272113186</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.770943681730025</v>
+        <v>1.596538323572029e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.939654272113186</v>
+        <v>36057085.1325451</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.596538323572029e-14</v>
+        <v>3.235916494715786e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>36057085.1325451</v>
+        <v>20.75680849339154</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.235916494715786e-06</v>
+        <v>0.0001302181708604492</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>20.75680849339154</v>
+        <v>6.943610316013652</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001302181708604492</v>
+        <v>1.619470899095805</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.943610316013652</v>
+        <v>0.006278302978383337</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.619470899095805</v>
+        <v>3.158950482064358</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006278302978383337</v>
+        <v>0.9574356233161255</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.158950482064358</v>
+        <v>1.712560939722158</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9574356233161255</v>
+        <v>13</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.712560939722158</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2002922353271795</v>
       </c>
     </row>
@@ -5918,72 +5828,66 @@
         <v>5.28838559528441e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.2161960388859336</v>
+        <v>2.28964255176145e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7724021499650662</v>
+        <v>7.909283367948279e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.28964255176145e-07</v>
+        <v>0.05369376613072154</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.909283367948279e-06</v>
+        <v>0.3211648447563042</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05369376613072154</v>
+        <v>0.1060104262567849</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.3211648447563042</v>
+        <v>1.755057612681436</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.1060104262567849</v>
+        <v>1.868360748653505</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.681361633405285</v>
+        <v>3.522418797339395</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.868360748653505</v>
+        <v>2.02049178800241e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.522418797339395</v>
+        <v>27927199.25969861</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.02049178800241e-14</v>
+        <v>4.166112364716244e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>27927199.25969861</v>
+        <v>15.75839045610264</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.166112364716244e-06</v>
+        <v>0.0001431522408725906</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>15.75839045610264</v>
+        <v>7.904947304804857</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001431522408725906</v>
+        <v>1.485843568510102</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.904947304804857</v>
+        <v>0.008945324697379253</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.485843568510102</v>
+        <v>3.064954144522807</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008945324697379253</v>
+        <v>0.9568967225780725</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.064954144522807</v>
+        <v>1.710155673342934</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9568967225780725</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.710155673342934</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1840420893884636</v>
       </c>
     </row>
@@ -5998,72 +5902,66 @@
         <v>5.013472348176568e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1057203979655909</v>
+        <v>2.120449898798592e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.002863991296218</v>
+        <v>7.911743068248962e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.120449898798592e-07</v>
+        <v>0.04063322882982907</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.911743068248962e-06</v>
+        <v>0.3477790898864849</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04063322882982907</v>
+        <v>0.1225594802734842</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.3477790898864849</v>
+        <v>1.737098727403235</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.1225594802734842</v>
+        <v>1.870665461655546</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.657603650987268</v>
+        <v>3.485984939671843</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.870665461655546</v>
+        <v>2.062946934764998e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.485984939671843</v>
+        <v>27179935.2872471</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.062946934764998e-14</v>
+        <v>4.261659583706251e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>27179935.2872471</v>
+        <v>15.2399974213463</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.261659583706251e-06</v>
+        <v>0.0001618434332834209</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>15.2399974213463</v>
+        <v>10.5078899629334</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001618434332834209</v>
+        <v>1.175512870569864</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.5078899629334</v>
+        <v>0.01787006430697812</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.175512870569864</v>
+        <v>2.818490007908565</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01787006430697812</v>
+        <v>0.9561379848963734</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.818490007908565</v>
+        <v>1.724279574103792</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9561379848963734</v>
+        <v>10</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.724279574103792</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1800605866866219</v>
       </c>
     </row>
@@ -6078,72 +5976,66 @@
         <v>4.807121314674424e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.007014290936964911</v>
+        <v>1.840853368127051e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.137636322032572</v>
+        <v>7.913282121635298e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.840853368127051e-07</v>
+        <v>0.02076678795848926</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.913282121635298e-06</v>
+        <v>0.3683655039833316</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02076678795848926</v>
+        <v>0.1360554797346664</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3683655039833316</v>
+        <v>1.748715988867511</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.1360554797346664</v>
+        <v>1.765731770999777</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.667614726702709</v>
+        <v>3.48262785527366</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.765731770999777</v>
+        <v>2.066926013307837e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.48262785527366</v>
+        <v>27453513.05746464</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.066926013307837e-14</v>
+        <v>4.208700067859858e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>27453513.05746464</v>
+        <v>15.57832585370916</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.208700067859858e-06</v>
+        <v>0.0001820886838315918</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>15.57832585370916</v>
+        <v>12.19652970535038</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001820886838315918</v>
+        <v>1.091812390641719</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>12.19652970535038</v>
+        <v>0.02708666350057783</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.091812390641719</v>
+        <v>2.575452309348243</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02708666350057783</v>
+        <v>0.9576574438702603</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.575452309348243</v>
+        <v>1.734862654805035</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9576574438702603</v>
+        <v>14</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.734862654805035</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1826082651403522</v>
       </c>
     </row>
@@ -6158,72 +6050,66 @@
         <v>4.751350478403345e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.0188005966342503</v>
+        <v>1.743292196065006e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.15211666964443</v>
+        <v>7.913680164976406e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.743292196065006e-07</v>
+        <v>-0.00427185111682752</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7.913680164976406e-06</v>
+        <v>0.3621426246440015</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.00427185111682752</v>
+        <v>0.1310843155063406</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.3621426246440015</v>
+        <v>1.738319309726647</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.1310843155063406</v>
+        <v>1.627009456035805</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.658381445387166</v>
+        <v>3.520511917652183</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.627009456035805</v>
+        <v>2.022681173114448e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.520511917652183</v>
+        <v>26415231.40135763</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.022681173114448e-14</v>
+        <v>4.347659299157027e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>26415231.40135763</v>
+        <v>14.11355016257809</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.347659299157027e-06</v>
+        <v>0.000178197656546405</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>14.11355016257809</v>
+        <v>10.7220884259089</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.000178197656546405</v>
+        <v>1.214679503775449</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.7220884259089</v>
+        <v>0.02048616930308036</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.214679503775449</v>
+        <v>2.770470099140444</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02048616930308036</v>
+        <v>0.9584742317626073</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.770470099140444</v>
+        <v>1.745500528479925</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9584742317626073</v>
+        <v>14</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.745500528479925</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1713849026846219</v>
       </c>
     </row>
@@ -6238,72 +6124,66 @@
         <v>4.831693902900613e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.006496486046235694</v>
+        <v>1.743292196065006e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.175895629457052</v>
+        <v>7.912921454338623e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.743292196065006e-07</v>
+        <v>-0.0260901819072031</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>7.912921454338623e-06</v>
+        <v>0.334990269306834</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.0260901819072031</v>
+        <v>0.1128424320801969</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.334990269306834</v>
+        <v>1.77677952282093</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.1128424320801969</v>
+        <v>1.851315580273748</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.706192816960584</v>
+        <v>3.47553724302478</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.851315580273748</v>
+        <v>2.075368288476534e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.47553724302478</v>
+        <v>25453635.3892206</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.075368288476534e-14</v>
+        <v>4.560156532023985e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>25453635.3892206</v>
+        <v>13.44605285164743</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.560156532023985e-06</v>
+        <v>0.0001901423009976321</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>13.44605285164743</v>
+        <v>8.868358366543124</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001901423009976321</v>
+        <v>1.583656946727403</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.868358366543124</v>
+        <v>0.01495426987988499</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.583656946727403</v>
+        <v>2.836070243519695</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01495426987988499</v>
+        <v>0.9583293260532106</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.836070243519695</v>
+        <v>1.699257927306068</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9583293260532106</v>
+        <v>13</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.699257927306068</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1522963126663564</v>
       </c>
     </row>
@@ -6318,72 +6198,66 @@
         <v>4.943024712090205e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.02286451131254709</v>
+        <v>1.743292196065006e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.201944231537075</v>
+        <v>7.911293900691227e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.743292196065006e-07</v>
+        <v>-0.03852722097396624</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.911293900691227e-06</v>
+        <v>0.3108672450722706</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03852722097396624</v>
+        <v>0.09809752308387008</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.3108672450722706</v>
+        <v>1.791115070298888</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.09809752308387008</v>
+        <v>1.682886164604087</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.721366198879571</v>
+        <v>3.492106464360983</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.682886164604087</v>
+        <v>2.055720744958847e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.492106464360983</v>
+        <v>25469998.14689134</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.055720744958847e-14</v>
+        <v>4.590999009600387e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>25469998.14689134</v>
+        <v>13.3358881776378</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.590999009600387e-06</v>
+        <v>0.0001879061902826577</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>13.3358881776378</v>
+        <v>9.431571737351087</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001879061902826577</v>
+        <v>1.409251775485737</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.431571737351087</v>
+        <v>0.01671510974135462</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.409251775485737</v>
+        <v>2.761178917684647</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01671510974135462</v>
+        <v>0.9574460468816608</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.761178917684647</v>
+        <v>1.691316948951518</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9574460468816608</v>
+        <v>13</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.691316948951518</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1521471037955938</v>
       </c>
     </row>
@@ -6398,72 +6272,66 @@
         <v>4.996618785145396e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.07321026545633232</v>
+        <v>1.743292196065006e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.204816770287945</v>
+        <v>7.909292551910716e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.743292196065006e-07</v>
+        <v>-0.03995428489473563</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>7.909292551910716e-06</v>
+        <v>0.3050665296830742</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03995428489473563</v>
+        <v>0.09463915322035092</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.3050665296830742</v>
+        <v>1.805741590154486</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.09463915322035092</v>
+        <v>1.821088888989649</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.74822193151701</v>
+        <v>3.70317222064703</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.821088888989649</v>
+        <v>2.061048748526716e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.70317222064703</v>
+        <v>26180955.85153938</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.061048748526716e-14</v>
+        <v>4.484253891574498e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>26180955.85153938</v>
+        <v>14.12730302317376</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.484253891574498e-06</v>
+        <v>0.000193047775484346</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>14.12730302317376</v>
+        <v>11.95635223714352</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000193047775484346</v>
+        <v>1.084667032799363</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.95635223714352</v>
+        <v>0.02759702096573076</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.084667032799363</v>
+        <v>2.517946575260275</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02759702096573076</v>
+        <v>0.9590671883592308</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.517946575260275</v>
+        <v>1.652612957316282</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9590671883592308</v>
+        <v>13</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.652612957316282</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1636271461094716</v>
       </c>
     </row>
@@ -6478,72 +6346,66 @@
         <v>4.965343907520128e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1353466301202667</v>
+        <v>1.743292196065006e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.174177008327902</v>
+        <v>7.907458643389727e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.743292196065006e-07</v>
+        <v>-0.03281672033923107</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.907458643389727e-06</v>
+        <v>0.3181289384510795</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03281672033923107</v>
+        <v>0.1022503531602022</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.3181289384510795</v>
+        <v>1.781520917546836</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.1022503531602022</v>
+        <v>1.746823744317674</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.71865658369901</v>
+        <v>3.660232649757305</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.746823744317674</v>
+        <v>2.109690282568777e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.660232649757305</v>
+        <v>26250398.5012775</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.109690282568777e-14</v>
+        <v>4.438721833077715e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>26250398.5012775</v>
+        <v>14.53752598166892</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.438721833077715e-06</v>
+        <v>0.0002005177006683228</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>14.53752598166892</v>
+        <v>12.94365735097869</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002005177006683228</v>
+        <v>1.028492568046089</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>12.94365735097869</v>
+        <v>0.03359438779598981</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.028492568046089</v>
+        <v>2.406586361909737</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.03359438779598981</v>
+        <v>0.9585661612605392</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.406586361909737</v>
+        <v>1.652735737960651</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9585661612605392</v>
+        <v>9</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.652735737960651</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.169820679987404</v>
       </c>
     </row>
@@ -6558,72 +6420,66 @@
         <v>4.871678452946917e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1721713574656433</v>
+        <v>1.743292196065006e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.108792167139267</v>
+        <v>7.90598167471902e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.743292196065006e-07</v>
+        <v>-0.02789463611605146</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>7.90598167471902e-06</v>
+        <v>0.3315651166531168</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.02789463611605146</v>
+        <v>0.110700094468311</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.3315651166531168</v>
+        <v>1.771309616400337</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.110700094468311</v>
+        <v>1.701985979927861</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.701423445367375</v>
+        <v>3.51876619060915</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.701985979927861</v>
+        <v>2.282733765641999e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.51876619060915</v>
+        <v>24090202.43746562</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.282733765641999e-14</v>
+        <v>4.828088499280151e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>24090202.43746562</v>
+        <v>13.247568136146</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.828088499280151e-06</v>
+        <v>0.000196113166074257</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>13.247568136146</v>
+        <v>10.58335206268268</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.000196113166074257</v>
+        <v>1.297401200639824</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.58335206268268</v>
+        <v>0.02196611424406284</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.297401200639824</v>
+        <v>2.737273411736225</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02196611424406284</v>
+        <v>0.9589034192292676</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.737273411736225</v>
+        <v>1.717909563008731</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9589034192292676</v>
+        <v>9</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.717909563008731</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1564877937190675</v>
       </c>
     </row>
@@ -6638,72 +6494,66 @@
         <v>4.745493308949101e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1699045101761117</v>
+        <v>1.743292196065006e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.060209438964742</v>
+        <v>7.904707391323121e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.743292196065006e-07</v>
+        <v>-0.02486396890974435</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>7.904707391323121e-06</v>
+        <v>0.3431914010708258</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.02486396890974435</v>
+        <v>0.1183919694984315</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.3431914010708258</v>
+        <v>1.764094158346269</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.1183919694984315</v>
+        <v>1.645008683980414</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.685220528877426</v>
+        <v>3.53924619232683</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.645008683980414</v>
+        <v>2.256391924852428e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.53924619232683</v>
+        <v>24303869.00709657</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.256391924852428e-14</v>
+        <v>4.780483334935152e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>24303869.00709657</v>
+        <v>13.32801179306106</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.780483334935152e-06</v>
+        <v>0.0001915840487651085</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>13.32801179306106</v>
+        <v>8.958857085910211</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001915840487651085</v>
+        <v>1.583735220121295</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.958857085910211</v>
+        <v>0.01537675038276997</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.583735220121295</v>
+        <v>2.84197585839134</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01537675038276997</v>
+        <v>0.9594812442144639</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.84197585839134</v>
+        <v>1.713202876754</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9594812442144639</v>
+        <v>14</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.713202876754</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1532436322943841</v>
       </c>
     </row>
@@ -6718,72 +6568,66 @@
         <v>4.611506986952264e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.133443997888137</v>
+        <v>1.743292196065006e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.057784975627465</v>
+        <v>7.903631862661765e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.743292196065006e-07</v>
+        <v>-0.02108315673969977</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>7.903631862661765e-06</v>
+        <v>0.3561088705095802</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.02108315673969977</v>
+        <v>0.1272482512755144</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.3561088705095802</v>
+        <v>1.76815590567735</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.1272482512755144</v>
+        <v>1.619446938848377</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.689130009569485</v>
+        <v>3.688029210766072</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.619446938848377</v>
+        <v>2.078008785844422e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.688029210766072</v>
+        <v>26463259.53749071</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.078008785844422e-14</v>
+        <v>4.398733226018646e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>26463259.53749071</v>
+        <v>14.55238083677294</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.398733226018646e-06</v>
+        <v>0.0001668645492670519</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>14.55238083677294</v>
+        <v>9.209006264115459</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001668645492670519</v>
+        <v>1.33631743945844</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.209006264115459</v>
+        <v>0.01415108098693356</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.33631743945844</v>
+        <v>2.850272986692956</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01415108098693356</v>
+        <v>0.9600158491239473</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.850272986692956</v>
+        <v>1.708105772260988</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9600158491239473</v>
+        <v>14</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.708105772260988</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1675857929320644</v>
       </c>
     </row>
@@ -6798,72 +6642,66 @@
         <v>4.480228619935285e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.05855484585895807</v>
+        <v>1.736770477006284e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.14298435902612</v>
+        <v>7.902776584975935e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.736770477006284e-07</v>
+        <v>-0.01541101192019979</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>7.902776584975935e-06</v>
+        <v>0.3708815664868813</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.01541101192019979</v>
+        <v>0.1377741215668198</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.3708815664868813</v>
+        <v>1.774827581485409</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.1377741215668198</v>
+        <v>1.725707564280317</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.6996750158662</v>
+        <v>3.815504144016958</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.725707564280317</v>
+        <v>1.941476886808784e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.815504144016958</v>
+        <v>28115656.94686443</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.941476886808784e-14</v>
+        <v>4.129131913794644e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>28115656.94686443</v>
+        <v>15.34718385672286</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.129131913794644e-06</v>
+        <v>0.0001585021234182963</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>15.34718385672286</v>
+        <v>10.62927490959075</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001585021234182963</v>
+        <v>1.136207210252459</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.62927490959075</v>
+        <v>0.01790780529588201</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.136207210252459</v>
+        <v>2.710538166052883</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01790780529588201</v>
+        <v>0.9586743005734564</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.710538166052883</v>
+        <v>1.717405233490969</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9586743005734564</v>
+        <v>14</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.717405233490969</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1844355119238753</v>
       </c>
     </row>
@@ -6878,72 +6716,66 @@
         <v>4.40984359585825e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.00169447233601224</v>
+        <v>1.607071605714945e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.233105676426266</v>
+        <v>7.902377834663572e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.607071605714945e-07</v>
+        <v>-0.0008569106665315439</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>7.902377834663572e-06</v>
+        <v>0.3828993920034159</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.0008569106665315439</v>
+        <v>0.1465665976483474</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.3828993920034159</v>
+        <v>1.781178525286279</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.1465665976483474</v>
+        <v>1.854412788386019</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.710454373108043</v>
+        <v>3.755641319264512</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.854412788386019</v>
+        <v>2.003862263831299e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.755641319264512</v>
+        <v>26776592.44742575</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.003862263831299e-14</v>
+        <v>4.332506905512212e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>26776592.44742575</v>
+        <v>14.36740994912153</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.332506905512212e-06</v>
+        <v>0.0001526511958069765</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>14.36740994912153</v>
+        <v>10.91108177866734</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001526511958069765</v>
+        <v>1.091900743731711</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.91108177866734</v>
+        <v>0.01817338521976408</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.091900743731711</v>
+        <v>2.732287619103023</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01817338521976408</v>
+        <v>0.9593330007972519</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.732287619103023</v>
+        <v>1.685903661311152</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9593330007972519</v>
+        <v>13</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.685903661311152</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1904448333214815</v>
       </c>
     </row>
@@ -6958,72 +6790,66 @@
         <v>4.498820692416826e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.09056467689446758</v>
+        <v>1.988559060348273e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.04798025107594</v>
+        <v>7.902822841339185e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.988559060348273e-07</v>
+        <v>0.02187482314494263</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>7.902822841339185e-06</v>
+        <v>0.3880254765081264</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.02187482314494263</v>
+        <v>0.1509531708419062</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.3880254765081264</v>
+        <v>1.776215875006336</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.1509531708419062</v>
+        <v>1.736574996694914</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.709016923780468</v>
+        <v>3.622333865590975</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.736574996694914</v>
+        <v>2.15406662331894e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.622333865590975</v>
+        <v>24450103.62448524</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.15406662331894e-14</v>
+        <v>4.735506712793336e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>24450103.62448524</v>
+        <v>12.87717327776553</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.735506712793336e-06</v>
+        <v>0.0001719622412989399</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>12.87717327776553</v>
+        <v>9.650593359777776</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001719622412989399</v>
+        <v>1.438890540493104</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.650593359777776</v>
+        <v>0.01601552316061584</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.438890540493104</v>
+        <v>2.911480227013941</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01601552316061584</v>
+        <v>0.9572858363914291</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.911480227013941</v>
+        <v>1.68195658110112</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9572858363914291</v>
+        <v>13</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.68195658110112</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1709856669033973</v>
       </c>
     </row>
@@ -7038,72 +6864,66 @@
         <v>4.830020229612599e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4251540015368342</v>
+        <v>2.458911179872401e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.1582443948221806</v>
+        <v>7.904380515089946e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.458911179872401e-07</v>
+        <v>0.04367266898078421</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>7.904380515089946e-06</v>
+        <v>0.3767475823428607</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.04367266898078421</v>
+        <v>0.1437855537744968</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.3767475823428607</v>
+        <v>1.772318050981984</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.1437855537744968</v>
+        <v>1.591059738220992</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.699611047026766</v>
+        <v>4.080933189437567</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.591059738220992</v>
+        <v>1.697137829864741e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.080933189437567</v>
+        <v>31824394.61421696</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.697137829864741e-14</v>
+        <v>3.659814032112815e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>31824394.61421696</v>
+        <v>17.18847774073826</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.659814032112815e-06</v>
+        <v>0.0001859590907055598</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>17.18847774073826</v>
+        <v>9.269669429899841</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001859590907055598</v>
+        <v>1.580667133605751</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.269669429899841</v>
+        <v>0.01597886426558022</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.580667133605751</v>
+        <v>2.914058877971074</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01597886426558022</v>
+        <v>0.957019487577268</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.914058877971074</v>
+        <v>1.715082676020462</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.957019487577268</v>
+        <v>16</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.715082676020462</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1753263431585387</v>
       </c>
     </row>
@@ -7118,72 +6938,66 @@
         <v>5.379222636180353e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.8688020162367281</v>
+        <v>2.843273866635546e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1.155488162209467</v>
+        <v>7.906953172172501e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.843273866635546e-07</v>
+        <v>0.05557517992257546</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>7.906953172172501e-06</v>
+        <v>0.3466453357687875</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.05557517992257546</v>
+        <v>0.1232232368381156</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.3466453357687875</v>
+        <v>1.77671491133731</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.1232232368381156</v>
+        <v>1.666548038076477</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.705382152535047</v>
+        <v>3.881233570054908</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.666548038076477</v>
+        <v>1.184429412568652e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.881233570054908</v>
+        <v>45775214.92423625</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.184429412568652e-14</v>
+        <v>2.542099667888186e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>45775214.92423625</v>
+        <v>24.81818215153649</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.542099667888186e-06</v>
+        <v>0.0001488564737787798</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>24.81818215153649</v>
+        <v>9.813464112009376</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001488564737787798</v>
+        <v>1.316820170877389</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.813464112009376</v>
+        <v>0.01433548544339082</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.316820170877389</v>
+        <v>2.991337064218206</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01433548544339082</v>
+        <v>0.9583184587285282</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.991337064218206</v>
+        <v>1.698960385029907</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9583184587285282</v>
+        <v>16</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.698960385029907</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2140829297186448</v>
       </c>
     </row>
@@ -7198,72 +7012,66 @@
         <v>6.059861756717603e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.230565058709848</v>
+        <v>3.135429667350228e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2.144805499612415</v>
+        <v>7.910224520545819e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.135429667350228e-07</v>
+        <v>0.05730230054106154</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>7.910224520545819e-06</v>
+        <v>0.312421317814107</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.05730230054106154</v>
+        <v>0.1008790264473288</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.312421317814107</v>
+        <v>1.800013754451685</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.1008790264473288</v>
+        <v>1.905717908044406</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.734234320205608</v>
+        <v>3.540046995172806</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.905717908044406</v>
+        <v>1.183715338186405e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.540046995172806</v>
+        <v>47409241.51368911</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.183715338186405e-14</v>
+        <v>2.47790274501197e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>47409241.51368911</v>
+        <v>26.60561421997952</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.47790274501197e-06</v>
+        <v>0.0001273741117692489</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>26.60561421997952</v>
+        <v>9.052925762944955</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001273741117692489</v>
+        <v>1.294183668443763</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.052925762944955</v>
+        <v>0.01043900454237475</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.294183668443763</v>
+        <v>3.064565518278155</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01043900454237475</v>
+        <v>0.9586106884171164</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.064565518278155</v>
+        <v>1.672451727583353</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9586106884171164</v>
+        <v>16</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.672451727583353</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.22618257642605</v>
       </c>
     </row>
@@ -7278,72 +7086,66 @@
         <v>6.780905857327964e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.452635890582529</v>
+        <v>3.318635373902259e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.545275235238361</v>
+        <v>7.913725947873436e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.318635373902259e-07</v>
+        <v>0.05134885293858274</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>7.913725947873436e-06</v>
+        <v>0.2793124088750585</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05134885293858274</v>
+        <v>0.08064525535117104</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2793124088750585</v>
+        <v>1.801130480286913</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.08064525535117104</v>
+        <v>1.955898642052132</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.739855032183702</v>
+        <v>3.369857633110094</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.955898642052132</v>
+        <v>1.306297882578492e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.369857633110094</v>
+        <v>43689085.51327717</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.306297882578492e-14</v>
+        <v>2.699802358568158e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>43689085.51327717</v>
+        <v>24.93378047299124</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.699802358568158e-06</v>
+        <v>0.0001203901960235071</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>24.93378047299124</v>
+        <v>7.993559612641742</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001203901960235071</v>
+        <v>1.310084090285549</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.993559612641742</v>
+        <v>0.007692571787175505</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.310084090285549</v>
+        <v>3.175373021689269</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007692571787175505</v>
+        <v>0.9569331002743914</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.175373021689269</v>
+        <v>1.66967151830552</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9569331002743914</v>
+        <v>9</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.66967151830552</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2198540652604813</v>
       </c>
     </row>
@@ -7358,72 +7160,66 @@
         <v>7.484567198195218e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1.561028226378716</v>
+        <v>3.450034845716376e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2.517060890366624</v>
+        <v>7.917213987276124e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>3.450034845716376e-07</v>
+        <v>0.04746583939123701</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>7.917213987276124e-06</v>
+        <v>0.2532437083049083</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.04746583939123701</v>
+        <v>0.06638333616368185</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.2532437083049083</v>
+        <v>1.800182167876564</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.06638333616368185</v>
+        <v>1.832860128748833</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.732689503264714</v>
+        <v>3.400640622085798</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.832860128748833</v>
+        <v>1.282755405107221e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.400640622085798</v>
+        <v>44545928.46400274</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.282755405107221e-14</v>
+        <v>2.649950988833767e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>44545928.46400274</v>
+        <v>25.45422530543217</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>2.649950988833767e-06</v>
+        <v>0.0001190425670229423</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>25.45422530543217</v>
+        <v>8.086290461106341</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001190425670229423</v>
+        <v>1.314789799424779</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.086290461106341</v>
+        <v>0.007783966493616973</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.314789799424779</v>
+        <v>3.199495166256168</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.007783966493616973</v>
+        <v>0.9564444122909435</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.199495166256168</v>
+        <v>1.685991465379045</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9564444122909435</v>
+        <v>10</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.685991465379045</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2241900400013828</v>
       </c>
     </row>
@@ -7438,72 +7234,66 @@
         <v>8.186878107442514e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.59700670156644</v>
+        <v>3.617104439426521e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2.283727423255225</v>
+        <v>7.92093955406145e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>3.617104439426521e-07</v>
+        <v>0.04811997538227226</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>7.92093955406145e-06</v>
+        <v>0.2318384755475744</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.04811997538227226</v>
+        <v>0.05606030050788448</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.2318384755475744</v>
+        <v>1.800983201006847</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.05606030050788448</v>
+        <v>1.78698252762384</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.732261217001115</v>
+        <v>3.531584345258489</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.78698252762384</v>
+        <v>1.189395151954603e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.531584345258489</v>
+        <v>48010423.36574774</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.189395151954603e-14</v>
+        <v>2.456014525045283e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>48010423.36574774</v>
+        <v>27.41556719393082</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.456014525045283e-06</v>
+        <v>0.000126325196118965</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>27.41556719393082</v>
+        <v>9.318340603023314</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.000126325196118965</v>
+        <v>1.31890175154001</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.318340603023314</v>
+        <v>0.01096900267840444</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.31890175154001</v>
+        <v>3.148356705236375</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01096900267840444</v>
+        <v>0.9569192274199888</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.148356705236375</v>
+        <v>1.6773880901357</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9569192274199888</v>
+        <v>10</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.6773880901357</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2395085530202086</v>
       </c>
     </row>
@@ -7518,72 +7308,66 @@
         <v>8.916852339302825e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1.593962578870726</v>
+        <v>3.826940267050794e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1.994199920040853</v>
+        <v>7.925121009400777e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>3.826940267050794e-07</v>
+        <v>0.04949837217450396</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>7.925121009400777e-06</v>
+        <v>0.2135716650188137</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.04949837217450396</v>
+        <v>0.04805933832360152</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.2135716650188137</v>
+        <v>1.791051770641968</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.04805933832360152</v>
+        <v>1.767241134359214</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.72746863644715</v>
+        <v>3.775202175456938</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.767241134359214</v>
+        <v>1.040842221128711e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.775202175456938</v>
+        <v>54701701.95423029</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.040842221128711e-14</v>
+        <v>2.1490380695624e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>54701701.95423029</v>
+        <v>31.14487402792812</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.1490380695624e-06</v>
+        <v>0.000149766822905193</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>31.14487402792812</v>
+        <v>10.60995767679021</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.000149766822905193</v>
+        <v>1.297661770147123</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.60995767679021</v>
+        <v>0.01685943125967319</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.297661770147123</v>
+        <v>3.017134583461169</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01685943125967319</v>
+        <v>0.9552529418690764</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.017134583461169</v>
+        <v>1.688171870574855</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9552529418690764</v>
+        <v>23</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.688171870574855</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2540160758063741</v>
       </c>
     </row>
@@ -7598,72 +7382,66 @@
         <v>9.676762924278479e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1.571530637928531</v>
+        <v>4.035910164177442e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1.709023106878101</v>
+        <v>7.929720465449119e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.035910164177442e-07</v>
+        <v>0.04910298636879706</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>7.929720465449119e-06</v>
+        <v>0.1978846412715131</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.04910298636879706</v>
+        <v>0.04156682688256488</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1978846412715131</v>
+        <v>1.78239873130669</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.04156682688256488</v>
+        <v>1.737237043930435</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.714939166358314</v>
+        <v>4.0652533976358</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.737237043930435</v>
+        <v>8.138586710395711e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.0652533976358</v>
+        <v>67972529.6457417</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>8.138586710395711e-15</v>
+        <v>1.727713112910045e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>67972529.6457417</v>
+        <v>37.6024255894399</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.727713112910045e-06</v>
+        <v>0.000148936553881327</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>37.6024255894399</v>
+        <v>9.380077047664802</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.000148936553881327</v>
+        <v>1.396194199021335</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.380077047664802</v>
+        <v>0.01310430860720901</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.396194199021335</v>
+        <v>3.123521246801364</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01310430860720901</v>
+        <v>0.9545294070891428</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.123521246801364</v>
+        <v>1.689256798014013</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9545294070891428</v>
+        <v>25</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.689256798014013</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2471740373841471</v>
       </c>
     </row>
@@ -7678,72 +7456,66 @@
         <v>1.044520230080803e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1.537388820628905</v>
+        <v>4.177488327413168e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1.42810770647607</v>
+        <v>7.934507065874678e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.177488327413168e-07</v>
+        <v>0.04550918318995793</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>7.934507065874678e-06</v>
+        <v>0.1833106017741356</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.04550918318995793</v>
+        <v>0.03567122869209507</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1833106017741356</v>
+        <v>1.811786380436463</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03567122869209507</v>
+        <v>1.824029036293172</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.757959884734909</v>
+        <v>4.142903792075155</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.824029036293172</v>
+        <v>7.760285685812353e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.142903792075155</v>
+        <v>69770285.14675415</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>7.760285685812353e-15</v>
+        <v>1.691389448036509e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>69770285.14675415</v>
+        <v>37.77623795808225</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.691389448036509e-06</v>
+        <v>0.0001295201620432263</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>37.77623795808225</v>
+        <v>8.331313792062481</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001295201620432263</v>
+        <v>1.381011028437894</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.331313792062481</v>
+        <v>0.008990096703822769</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.381011028437894</v>
+        <v>3.228362968687718</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.008990096703822769</v>
+        <v>0.9564077731097818</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.228362968687718</v>
+        <v>1.620613000310368</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9564077731097818</v>
+        <v>24</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.620613000310368</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2444488773166409</v>
       </c>
     </row>
@@ -8120,7 +7892,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.378161024000226</v>
+        <v>1.359124454792348</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.446120057989139</v>
@@ -8209,7 +7981,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.387063480874444</v>
+        <v>1.366337833989342</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.365775339473914</v>
@@ -8298,7 +8070,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.396319406964227</v>
+        <v>1.378842200182318</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.218013803590081</v>
@@ -8387,7 +8159,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.400191882935641</v>
+        <v>1.376484052161523</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.363395148111263</v>
@@ -8476,7 +8248,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.4097667224256</v>
+        <v>1.386598486631539</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.989760002588113</v>
@@ -8565,7 +8337,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.421936253161353</v>
+        <v>1.403577050378828</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.351952980637139</v>
@@ -8654,7 +8426,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.42622374977805</v>
+        <v>1.409864655096964</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.355257540304841</v>
@@ -8743,7 +8515,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.429330547766242</v>
+        <v>1.41591292139934</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.426102193658775</v>
@@ -8832,7 +8604,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.432433919205938</v>
+        <v>1.414656912171995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.22412205426132</v>
@@ -8921,7 +8693,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.413207678008249</v>
+        <v>1.400719779588465</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.454173009187218</v>
@@ -9010,7 +8782,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.417261681242721</v>
+        <v>1.403148903840682</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.459386212223841</v>
@@ -9099,7 +8871,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.389972143988927</v>
+        <v>1.375838749941001</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.352968466481184</v>
@@ -9188,7 +8960,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.393783848159416</v>
+        <v>1.378339455279383</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.350252385611619</v>
@@ -9277,7 +9049,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.392787515939965</v>
+        <v>1.370221838261951</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.305263034188056</v>
@@ -9366,7 +9138,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.382446963118089</v>
+        <v>1.366097035189231</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.352320139930182</v>
@@ -9455,7 +9227,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.38298060092465</v>
+        <v>1.366940005457394</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.344133464845473</v>
@@ -9544,7 +9316,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.385948742436956</v>
+        <v>1.367050074822135</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.404785726706522</v>
@@ -9633,7 +9405,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.385173466433946</v>
+        <v>1.366856513107175</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.364655939337163</v>
@@ -9722,7 +9494,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.386043789121832</v>
+        <v>1.368690616259377</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.522643885114436</v>
@@ -9811,7 +9583,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.376200514865447</v>
+        <v>1.356144826177628</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.332278286826276</v>
@@ -9900,7 +9672,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.368162738938931</v>
+        <v>1.350657027896071</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.367665696697669</v>
@@ -9989,7 +9761,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.387856475225242</v>
+        <v>1.371526849479239</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.370520320322447</v>
@@ -10078,7 +9850,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.390027759081696</v>
+        <v>1.373794455627974</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.405958675345462</v>
@@ -10167,7 +9939,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.377467735029125</v>
+        <v>1.365833560957925</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.247381221681699</v>
@@ -10256,7 +10028,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.392224401073813</v>
+        <v>1.376373155800644</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.366766889101395</v>
@@ -10345,7 +10117,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.39757667217504</v>
+        <v>1.383356833572269</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.410377148343124</v>
@@ -10434,7 +10206,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.425374771486827</v>
+        <v>1.408040651199111</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.465972942457576</v>
@@ -10523,7 +10295,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.429777498204396</v>
+        <v>1.414156377595669</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.348581220984899</v>
@@ -10612,7 +10384,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.454200953841484</v>
+        <v>1.433830614465651</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.262396148088885</v>
@@ -10701,7 +10473,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.456846576950509</v>
+        <v>1.437972583808262</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.496119696575007</v>
@@ -10790,7 +10562,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.449100627030985</v>
+        <v>1.430324925378448</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.399766361745797</v>
@@ -10879,7 +10651,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.456051607222</v>
+        <v>1.434921024483955</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.44441754950341</v>
@@ -10968,7 +10740,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.465920164989995</v>
+        <v>1.440934735301433</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.40220050283297</v>
@@ -11057,7 +10829,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.481088875917078</v>
+        <v>1.452461457710215</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.4934267822132</v>
@@ -11146,7 +10918,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.509521172758489</v>
+        <v>1.472422245863717</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.844133133569517</v>
@@ -11235,7 +11007,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.512109801053266</v>
+        <v>1.472740212760949</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.755614956525874</v>
@@ -11324,7 +11096,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.507702180631987</v>
+        <v>1.472021988101477</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.845009572944358</v>
@@ -11413,7 +11185,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.502071885836126</v>
+        <v>1.466774915806895</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.939353115510155</v>
@@ -11502,7 +11274,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.516984103091672</v>
+        <v>1.470560107624176</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.775176353624862</v>
@@ -11591,7 +11363,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.489011212288531</v>
+        <v>1.45554076687542</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.879019315100731</v>
@@ -11680,7 +11452,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.487038070194972</v>
+        <v>1.451377400069201</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.887475956607195</v>
@@ -11769,7 +11541,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.470208907673673</v>
+        <v>1.43997076000684</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.637709523204438</v>
@@ -11858,7 +11630,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.461736819909258</v>
+        <v>1.432597865701689</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.701429106534598</v>
@@ -11947,7 +11719,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.45270542734068</v>
+        <v>1.424749662213569</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.704484135113752</v>
@@ -12036,7 +11808,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.456211528167658</v>
+        <v>1.427211306695415</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.660243312498051</v>
@@ -12125,7 +11897,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.455397411925616</v>
+        <v>1.424419783065329</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.788278632074722</v>
@@ -12214,7 +11986,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.454019585182931</v>
+        <v>1.423859258238728</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.671813587799362</v>
@@ -12303,7 +12075,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.440898286756995</v>
+        <v>1.417367474499563</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.522040212210022</v>
@@ -12392,7 +12164,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.421725656609656</v>
+        <v>1.391922148517088</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.051835866954766</v>
@@ -12481,7 +12253,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.380077442190949</v>
+        <v>1.361682690676308</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.214475503429528</v>
@@ -12570,7 +12342,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.385453545099324</v>
+        <v>1.364338440255407</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.146993290511781</v>
@@ -12659,7 +12431,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.383936554341692</v>
+        <v>1.361064804221392</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.160602126455386</v>
@@ -12748,7 +12520,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.391597163425301</v>
+        <v>1.364559617993366</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.209058775951504</v>
@@ -12837,7 +12609,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.38209406911622</v>
+        <v>1.353686233727702</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.003295434784314</v>
@@ -12926,7 +12698,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.386051875714547</v>
+        <v>1.356753392110356</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.104390349966331</v>
@@ -13015,7 +12787,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.359081064428056</v>
+        <v>1.329481752190469</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.281394749103004</v>
@@ -13104,7 +12876,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.376549239754412</v>
+        <v>1.337203191348106</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.236851625719564</v>
@@ -13193,7 +12965,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.387318282012019</v>
+        <v>1.341205596226003</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.243240885265612</v>
@@ -13282,7 +13054,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.394667144585657</v>
+        <v>1.348617549441586</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.266667796003749</v>
@@ -13371,7 +13143,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.377576914004298</v>
+        <v>1.334797816476475</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.354551634770318</v>
@@ -13460,7 +13232,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.380674753057</v>
+        <v>1.339045183647322</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.318881192427099</v>
@@ -13549,7 +13321,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.382069737449408</v>
+        <v>1.337279947075253</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.275816220221446</v>
@@ -13638,7 +13410,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.384304873125615</v>
+        <v>1.341808052633044</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.331082316220487</v>
@@ -13727,7 +13499,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.420957178818306</v>
+        <v>1.367404959795811</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.235278883660485</v>
@@ -13816,7 +13588,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.438581254365144</v>
+        <v>1.381405448243057</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.370953874580204</v>
@@ -13905,7 +13677,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.425066483314052</v>
+        <v>1.37120638949136</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.34199800791101</v>
@@ -13994,7 +13766,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.423587943331269</v>
+        <v>1.369969243760927</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.50615577529148</v>
@@ -14083,7 +13855,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.424369136499664</v>
+        <v>1.369990615854713</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.487239440536092</v>
@@ -14172,7 +13944,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.422039625317933</v>
+        <v>1.3692331091766</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.574140311395541</v>
@@ -14261,7 +14033,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.418381640517467</v>
+        <v>1.363997976678887</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.17016030967862</v>
@@ -14350,7 +14122,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.429328493247872</v>
+        <v>1.379844241548219</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.711768769725644</v>
@@ -14439,7 +14211,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.413980320423896</v>
+        <v>1.36843313142996</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.35132151864098</v>
@@ -14528,7 +14300,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.408988795450775</v>
+        <v>1.367676027739109</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.551579974587511</v>
@@ -14617,7 +14389,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.401700440680493</v>
+        <v>1.361411017217977</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.242668549960525</v>
@@ -14706,7 +14478,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.389869328111172</v>
+        <v>1.348127477132287</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.360309210944485</v>
@@ -14795,7 +14567,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.388734379823393</v>
+        <v>1.346117860464798</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.386723317486826</v>
@@ -14884,7 +14656,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.390695075151145</v>
+        <v>1.346921290600104</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.406321906237259</v>
@@ -14973,7 +14745,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.409335449237046</v>
+        <v>1.36054884281101</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.253852241574745</v>
@@ -15062,7 +14834,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.395326155693536</v>
+        <v>1.353951470779927</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.387331032830284</v>
@@ -15151,7 +14923,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.394892515711339</v>
+        <v>1.355561045321389</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.286420927475664</v>
@@ -15240,7 +15012,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.39991240802243</v>
+        <v>1.364278962795121</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.435227946108362</v>
@@ -15526,7 +15298,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.48130847772567</v>
+        <v>1.463587254502806</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.68996076851748</v>
@@ -15615,7 +15387,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.467414306746644</v>
+        <v>1.457284754631312</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.66577027576436</v>
@@ -15704,7 +15476,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.489220983011406</v>
+        <v>1.471774078363936</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.321623327879544</v>
@@ -15793,7 +15565,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.535679466616285</v>
+        <v>1.510534821773124</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.604564667990836</v>
@@ -15882,7 +15654,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.552662781617694</v>
+        <v>1.526784654676729</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.665516477174628</v>
@@ -15971,7 +15743,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.558530787263883</v>
+        <v>1.530786993515803</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.650515387319365</v>
@@ -16060,7 +15832,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.550636589812275</v>
+        <v>1.532293147893796</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.494882236131857</v>
@@ -16149,7 +15921,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.526111978260593</v>
+        <v>1.522333958429331</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.568558613131865</v>
@@ -16238,7 +16010,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.537127534523783</v>
+        <v>1.537023266561414</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.531436426403191</v>
@@ -16327,7 +16099,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.529458439697445</v>
+        <v>1.52865934348033</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.671917516474012</v>
@@ -16416,7 +16188,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.525845916640425</v>
+        <v>1.523059575143831</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.496423622931279</v>
@@ -16505,7 +16277,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.514676309568727</v>
+        <v>1.514827867754122</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.453195365737288</v>
@@ -16594,7 +16366,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.518811393507459</v>
+        <v>1.515562167633373</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.475171478765906</v>
@@ -16683,7 +16455,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.523473389012137</v>
+        <v>1.520259015903779</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.430777286887402</v>
@@ -16772,7 +16544,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.51499460681255</v>
+        <v>1.510533118229775</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.489490494607652</v>
@@ -16861,7 +16633,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.525455822627825</v>
+        <v>1.516269653482365</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.326993467521232</v>
@@ -16950,7 +16722,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.534283437842837</v>
+        <v>1.524945667891189</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.710505199585691</v>
@@ -17039,7 +16811,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.52851547682253</v>
+        <v>1.51987525797028</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.730964307425587</v>
@@ -17128,7 +16900,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.522395828182605</v>
+        <v>1.515255871423306</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.690686656792281</v>
@@ -17217,7 +16989,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.503732891660246</v>
+        <v>1.492038945839143</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.453957031113247</v>
@@ -17306,7 +17078,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.494920036122854</v>
+        <v>1.485316229704719</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.499732542801337</v>
@@ -17395,7 +17167,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.499508679387871</v>
+        <v>1.484212360822205</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.373922911491011</v>
@@ -17484,7 +17256,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.502009658417933</v>
+        <v>1.474577574949747</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.596645472514512</v>
@@ -17573,7 +17345,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.48207053409574</v>
+        <v>1.455333273285041</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.859842011729151</v>
@@ -17662,7 +17434,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.49567531717207</v>
+        <v>1.467176004889335</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.641653295955793</v>
@@ -17751,7 +17523,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.506047010830886</v>
+        <v>1.473833849454979</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.581020327477296</v>
@@ -17840,7 +17612,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.503222364599973</v>
+        <v>1.463733298502977</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.005427905073289</v>
@@ -17929,7 +17701,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.497423492179734</v>
+        <v>1.460427354239426</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.693089535798035</v>
@@ -18018,7 +17790,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.498474499017575</v>
+        <v>1.458569573199846</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.763147197064098</v>
@@ -18107,7 +17879,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.49095028166739</v>
+        <v>1.446884423607049</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.820406913738899</v>
@@ -18196,7 +17968,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.482587813169488</v>
+        <v>1.439691507566807</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.620824412154462</v>
@@ -18285,7 +18057,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.478072540202825</v>
+        <v>1.435867134713077</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.72916497688257</v>
@@ -18374,7 +18146,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.485045076588593</v>
+        <v>1.439892149625689</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.691965269521906</v>
@@ -18463,7 +18235,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.479390994388088</v>
+        <v>1.431483608035302</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.753022987649391</v>
@@ -18552,7 +18324,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.492325706347324</v>
+        <v>1.445111654914941</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.840802920060955</v>
@@ -18641,7 +18413,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.480492412744824</v>
+        <v>1.432148357111933</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.758137148314372</v>
@@ -18730,7 +18502,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.48055766901603</v>
+        <v>1.42718334602348</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.850663216454077</v>
@@ -18819,7 +18591,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.501207728838501</v>
+        <v>1.439971293368185</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.790775723951159</v>
@@ -18908,7 +18680,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.505603448694722</v>
+        <v>1.441675131995318</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.782525299952917</v>
@@ -18997,7 +18769,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.488421511345684</v>
+        <v>1.428986551907458</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.781549382189128</v>
@@ -19086,7 +18858,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.487474069981336</v>
+        <v>1.427293763327203</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.706042955731806</v>
@@ -19175,7 +18947,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.482725142209234</v>
+        <v>1.431061538842855</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.805862895396015</v>
@@ -19264,7 +19036,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.480249943440923</v>
+        <v>1.429759577256455</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.558321208703827</v>
@@ -19353,7 +19125,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.484390480391105</v>
+        <v>1.432266292591354</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.69228341442605</v>
@@ -19442,7 +19214,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.497154805537846</v>
+        <v>1.442616411521262</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.867443474394817</v>
@@ -19531,7 +19303,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.500813047731933</v>
+        <v>1.444213951808254</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.711326031602642</v>
@@ -19620,7 +19392,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.506153091273328</v>
+        <v>1.445586444993431</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.866937871945227</v>
@@ -19709,7 +19481,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.487158911867608</v>
+        <v>1.437549473700734</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.82188713733878</v>
@@ -19798,7 +19570,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.466464196076572</v>
+        <v>1.412607276156273</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.146339273653309</v>
@@ -19887,7 +19659,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.423646433313591</v>
+        <v>1.38708174804786</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.078380674831749</v>
@@ -19976,7 +19748,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.437470231025885</v>
+        <v>1.39717060479679</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.179330914231751</v>
@@ -20065,7 +19837,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.436917848666477</v>
+        <v>1.403277675534498</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.163680721795122</v>
@@ -20154,7 +19926,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.424588668275217</v>
+        <v>1.390455028636265</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.216147790923878</v>
@@ -20243,7 +20015,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.390845797232188</v>
+        <v>1.356527646130458</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.032543188847719</v>
@@ -20332,7 +20104,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.388760357767507</v>
+        <v>1.354308744896353</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.006819518265424</v>
@@ -20421,7 +20193,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.37960380111173</v>
+        <v>1.335376826687788</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.103674829258097</v>
@@ -20510,7 +20282,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.390513248415793</v>
+        <v>1.337609162626076</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.131617397969433</v>
@@ -20599,7 +20371,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.396768459131561</v>
+        <v>1.338225472991483</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.141381193702054</v>
@@ -20688,7 +20460,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.399764884812201</v>
+        <v>1.343272665442119</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.152078540665588</v>
@@ -20777,7 +20549,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.393923770291789</v>
+        <v>1.337423965433835</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.251223251567194</v>
@@ -20866,7 +20638,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.392564429077527</v>
+        <v>1.336958742572834</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.195139912508712</v>
@@ -20955,7 +20727,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.393425568986962</v>
+        <v>1.333090646959888</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.156357088901693</v>
@@ -21044,7 +20816,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.393385360840646</v>
+        <v>1.331761407669251</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.184861513354787</v>
@@ -21133,7 +20905,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.420250296510362</v>
+        <v>1.353442560041924</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.995112335406563</v>
@@ -21222,7 +20994,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.430751082913245</v>
+        <v>1.359432764698952</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.1903681918949</v>
@@ -21311,7 +21083,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.412849257001289</v>
+        <v>1.344996134413977</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.285893334139293</v>
@@ -21400,7 +21172,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.413671475283369</v>
+        <v>1.34754609606439</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.385778434364695</v>
@@ -21489,7 +21261,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.425468681415236</v>
+        <v>1.359045326960178</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.370689715384997</v>
@@ -21578,7 +21350,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.438088987285902</v>
+        <v>1.373014854967669</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.622871277886358</v>
@@ -21667,7 +21439,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.441818799825262</v>
+        <v>1.377101477694688</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.47361574733081</v>
@@ -21756,7 +21528,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.4555721330599</v>
+        <v>1.394232532642087</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.503322177310921</v>
@@ -21845,7 +21617,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.439254690285699</v>
+        <v>1.386076226378435</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.29332409246838</v>
@@ -21934,7 +21706,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.429720705943602</v>
+        <v>1.381252974284245</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.462494809583105</v>
@@ -22023,7 +21795,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.416054216026163</v>
+        <v>1.371409547849135</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.301149515082464</v>
@@ -22112,7 +21884,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.390037429008886</v>
+        <v>1.348407279791486</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.168731193816828</v>
@@ -22201,7 +21973,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.391469402210417</v>
+        <v>1.350915668245179</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.199215227307443</v>
@@ -22290,7 +22062,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.396434171828543</v>
+        <v>1.356899451106171</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.238592594523879</v>
@@ -22379,7 +22151,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.411843525879768</v>
+        <v>1.368124586243241</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.123180765950756</v>
@@ -22468,7 +22240,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.409403338075047</v>
+        <v>1.370782210827686</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.268272433408933</v>
@@ -22557,7 +22329,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.409863809105916</v>
+        <v>1.373562093255239</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.150834156497432</v>
@@ -22646,7 +22418,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.411509779308073</v>
+        <v>1.380897925254822</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.294735083922221</v>
@@ -22932,7 +22704,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.559056494562441</v>
+        <v>1.537616971036772</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.345502153280682</v>
@@ -23021,7 +22793,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.562255724467426</v>
+        <v>1.539668271845193</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.349568152905584</v>
@@ -23110,7 +22882,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.561850838798184</v>
+        <v>1.538305976071888</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.269866010894661</v>
@@ -23199,7 +22971,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.581909683121878</v>
+        <v>1.554228206687974</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.833875666464543</v>
@@ -23288,7 +23060,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.60610285941358</v>
+        <v>1.575014215250159</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.527451766794822</v>
@@ -23377,7 +23149,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.613062360349997</v>
+        <v>1.57653121954771</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.071739746947598</v>
@@ -23466,7 +23238,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60207676625828</v>
+        <v>1.572853944854016</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.719777159700964</v>
@@ -23555,7 +23327,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.596026263036905</v>
+        <v>1.573850878629259</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.703252223491668</v>
@@ -23644,7 +23416,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.599425197173865</v>
+        <v>1.573790022260631</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.958037774212777</v>
@@ -23733,7 +23505,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.588573622499528</v>
+        <v>1.567809880638511</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.821345917500838</v>
@@ -23822,7 +23594,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.587574411130954</v>
+        <v>1.561441020813847</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.899051919707559</v>
@@ -23911,7 +23683,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.584184934308229</v>
+        <v>1.558785972567714</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.928890362289391</v>
@@ -24000,7 +23772,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.579114537507888</v>
+        <v>1.547936918932823</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.952947353258323</v>
@@ -24089,7 +23861,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.567307956596444</v>
+        <v>1.53511090803918</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.739802593230895</v>
@@ -24178,7 +23950,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.559506038449535</v>
+        <v>1.528404216920726</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.892555493321953</v>
@@ -24267,7 +24039,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.557284816321977</v>
+        <v>1.524981512752853</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.887857420409539</v>
@@ -24356,7 +24128,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.555044209824714</v>
+        <v>1.523142629187482</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.91563208471396</v>
@@ -24445,7 +24217,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.540977392822058</v>
+        <v>1.516228071604413</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.784802541661199</v>
@@ -24534,7 +24306,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.535836132826532</v>
+        <v>1.506788089007943</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.915876467680443</v>
@@ -24623,7 +24395,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.514611572597758</v>
+        <v>1.483144783661825</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.727975249329162</v>
@@ -24712,7 +24484,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.50962663721737</v>
+        <v>1.48135749583442</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.817884137210649</v>
@@ -24801,7 +24573,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.514661078717145</v>
+        <v>1.487196564143448</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.647144032925162</v>
@@ -24890,7 +24662,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.506646378223653</v>
+        <v>1.471813947831845</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.022856579224611</v>
@@ -24979,7 +24751,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.506346659733497</v>
+        <v>1.472845311469955</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.700438244189577</v>
@@ -25068,7 +24840,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.507304417648712</v>
+        <v>1.468144064473625</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.697563824435894</v>
@@ -25157,7 +24929,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.506848924718887</v>
+        <v>1.468235301902649</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.75499320423465</v>
@@ -25246,7 +25018,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.500454753183168</v>
+        <v>1.460731003305058</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.892094956901642</v>
@@ -25335,7 +25107,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.501395454585309</v>
+        <v>1.470117647633552</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.974933664961819</v>
@@ -25424,7 +25196,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.518937352643939</v>
+        <v>1.485090832634925</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.045843811560514</v>
@@ -25513,7 +25285,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.514500716048969</v>
+        <v>1.48632229683121</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.031493569266917</v>
@@ -25602,7 +25374,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.507136754239748</v>
+        <v>1.47939717084609</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.807610967534785</v>
@@ -25691,7 +25463,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.507996971422218</v>
+        <v>1.480495436197145</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.925419916888222</v>
@@ -25780,7 +25552,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.524437277226161</v>
+        <v>1.489156526676593</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.090711694103732</v>
@@ -25869,7 +25641,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535829501361121</v>
+        <v>1.495808863792218</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.023348555364845</v>
@@ -25958,7 +25730,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.562135018025022</v>
+        <v>1.518308578824846</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.32885644755625</v>
@@ -26047,7 +25819,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.549563564738629</v>
+        <v>1.506216483003718</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.39017176571642</v>
@@ -26136,7 +25908,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.547788658258568</v>
+        <v>1.503619562943113</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.981722019436874</v>
@@ -26225,7 +25997,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.556209649283439</v>
+        <v>1.511575507458388</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.10191213365471</v>
@@ -26314,7 +26086,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.552697173398101</v>
+        <v>1.50490137000925</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.128469399949648</v>
@@ -26403,7 +26175,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.540346553624423</v>
+        <v>1.496534017400505</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.91179859357952</v>
@@ -26492,7 +26264,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.520379825758466</v>
+        <v>1.483457515953113</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.187817736962197</v>
@@ -26581,7 +26353,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.516484216681121</v>
+        <v>1.48090294438612</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.135848710667759</v>
@@ -26670,7 +26442,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.510904955252522</v>
+        <v>1.474497261879381</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.240853888930399</v>
@@ -26759,7 +26531,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.507967740178867</v>
+        <v>1.469674204533985</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.235805262696174</v>
@@ -26848,7 +26620,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.517282902710285</v>
+        <v>1.473204515128011</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.014095346109979</v>
@@ -26937,7 +26709,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.512264597249907</v>
+        <v>1.461868822782995</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.204956329613065</v>
@@ -27026,7 +26798,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.505038321375794</v>
+        <v>1.455747854381898</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.250032665420878</v>
@@ -27115,7 +26887,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.499164414917794</v>
+        <v>1.453222970472043</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.001551849714966</v>
@@ -27204,7 +26976,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.485294809838899</v>
+        <v>1.441199940255427</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.286899009382434</v>
@@ -27293,7 +27065,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.45547302432116</v>
+        <v>1.419748681500581</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.615484595754084</v>
@@ -27382,7 +27154,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.467351152098435</v>
+        <v>1.420798670374787</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.603829278923981</v>
@@ -27471,7 +27243,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.453231468323097</v>
+        <v>1.404972444297452</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.571303825534094</v>
@@ -27560,7 +27332,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.445188434139824</v>
+        <v>1.398082675521876</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.457751856067737</v>
@@ -27649,7 +27421,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.430637426916707</v>
+        <v>1.380787137397942</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.145376269482</v>
@@ -27738,7 +27510,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.438655119351378</v>
+        <v>1.390263375780518</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.210463212352951</v>
@@ -27827,7 +27599,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.43443614905598</v>
+        <v>1.384032907323273</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.391702117893169</v>
@@ -27916,7 +27688,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.446277376708078</v>
+        <v>1.388727634328903</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.251814872174132</v>
@@ -28005,7 +27777,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.445557528501212</v>
+        <v>1.38244676293201</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.407447718185469</v>
@@ -28094,7 +27866,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.460009287799527</v>
+        <v>1.395337516028165</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.319202320940208</v>
@@ -28183,7 +27955,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.445511503885437</v>
+        <v>1.381520923336402</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.305958252657669</v>
@@ -28272,7 +28044,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.455631413004516</v>
+        <v>1.393815269324365</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.370947698708401</v>
@@ -28361,7 +28133,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.458839730680625</v>
+        <v>1.396815258329305</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.398051688850806</v>
@@ -28450,7 +28222,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.462409448865192</v>
+        <v>1.399794913520179</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.41054637035017</v>
@@ -28539,7 +28311,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.490686554351131</v>
+        <v>1.418538715278192</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.309937969553892</v>
@@ -28628,7 +28400,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.505090033224406</v>
+        <v>1.422995360694401</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.510089008028295</v>
@@ -28717,7 +28489,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.48920951370103</v>
+        <v>1.417763338881968</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.438774893083765</v>
@@ -28806,7 +28578,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.498212782559888</v>
+        <v>1.43053301739014</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.625263633047394</v>
@@ -28895,7 +28667,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.510264824789946</v>
+        <v>1.440611786938586</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.573298301532561</v>
@@ -28984,7 +28756,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.513451206483412</v>
+        <v>1.444059569849856</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.850528240078406</v>
@@ -29073,7 +28845,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.510318476479673</v>
+        <v>1.440324887305345</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.657826914641191</v>
@@ -29162,7 +28934,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.511534221899557</v>
+        <v>1.447995473710033</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.003718670012877</v>
@@ -29251,7 +29023,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.495445764646653</v>
+        <v>1.436441093629366</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.483301873654668</v>
@@ -29340,7 +29112,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.489125581854251</v>
+        <v>1.436987536450289</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.838285762593123</v>
@@ -29429,7 +29201,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.467818035932372</v>
+        <v>1.417350901775711</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.447140568627399</v>
@@ -29518,7 +29290,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.453152940328706</v>
+        <v>1.406982984399939</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.287756354327419</v>
@@ -29607,7 +29379,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.447424397580344</v>
+        <v>1.402711200260271</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.330946786071482</v>
@@ -29696,7 +29468,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.447258985284352</v>
+        <v>1.396939151347379</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.4196500682591</v>
@@ -29785,7 +29557,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.451364615418294</v>
+        <v>1.398385642828269</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.321237210666517</v>
@@ -29874,7 +29646,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.444047007987155</v>
+        <v>1.396620584435422</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.474218957622544</v>
@@ -29963,7 +29735,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.441962483699066</v>
+        <v>1.400229491053168</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.309326276744529</v>
@@ -30052,7 +29824,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.452928012369188</v>
+        <v>1.412423687401663</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.40521064080749</v>
@@ -30338,7 +30110,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.640212375276728</v>
+        <v>1.593196249544786</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.022284279026749</v>
@@ -30427,7 +30199,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.627612523881736</v>
+        <v>1.5830459572438</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.104757879646668</v>
@@ -30516,7 +30288,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.628938521180009</v>
+        <v>1.583713169819188</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.095427059356172</v>
@@ -30605,7 +30377,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.635374154092268</v>
+        <v>1.583042042724999</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.965880226166425</v>
@@ -30694,7 +30466,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.643689731366243</v>
+        <v>1.590117461398502</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.580657548044889</v>
@@ -30783,7 +30555,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.64141436553274</v>
+        <v>1.582465336932477</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.443260399892517</v>
@@ -30872,7 +30644,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.623830247950554</v>
+        <v>1.576172084113714</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.185817857200685</v>
@@ -30961,7 +30733,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.61706047565782</v>
+        <v>1.572043399683211</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.076422533398551</v>
@@ -31050,7 +30822,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.617589237064787</v>
+        <v>1.572321097786032</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.063929436536327</v>
@@ -31139,7 +30911,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.61453641687207</v>
+        <v>1.570012648072647</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.178031429837414</v>
@@ -31228,7 +31000,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.604149857251282</v>
+        <v>1.564441719409367</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.18738712405287</v>
@@ -31317,7 +31089,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593219088072167</v>
+        <v>1.556385374602558</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.245397004122393</v>
@@ -31406,7 +31178,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.565346001772653</v>
+        <v>1.5357469909788</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.626390453238038</v>
@@ -31495,7 +31267,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.554835447718945</v>
+        <v>1.523214222312787</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.770471543858493</v>
@@ -31584,7 +31356,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.545772549384584</v>
+        <v>1.513126676224356</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.72533162801875</v>
@@ -31673,7 +31445,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.545280947202726</v>
+        <v>1.513775878917568</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.66301697508779</v>
@@ -31762,7 +31534,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.552469989466694</v>
+        <v>1.516771022997815</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.711580809868802</v>
@@ -31851,7 +31623,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.542455517554093</v>
+        <v>1.509910448456218</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.670911263467885</v>
@@ -31940,7 +31712,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.54740613378079</v>
+        <v>1.515306572908638</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.464101075904517</v>
@@ -32029,7 +31801,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.533826630796907</v>
+        <v>1.497288323756732</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.672889048272342</v>
@@ -32118,7 +31890,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.530732035903796</v>
+        <v>1.501174508674044</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.753383211807232</v>
@@ -32207,7 +31979,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.525174328070022</v>
+        <v>1.490191438622823</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.508688798576856</v>
@@ -32296,7 +32068,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.518776998832185</v>
+        <v>1.486122093483565</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.623483256555304</v>
@@ -32385,7 +32157,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.518061933030599</v>
+        <v>1.484540810892321</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.669969964143817</v>
@@ -32474,7 +32246,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.514119901551501</v>
+        <v>1.481543878081696</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.639324134290846</v>
@@ -32563,7 +32335,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.512332184263856</v>
+        <v>1.471502825689012</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.644723461006607</v>
@@ -32652,7 +32424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.509476441996601</v>
+        <v>1.466555179537522</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.559834680427862</v>
@@ -32741,7 +32513,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.525659465200361</v>
+        <v>1.476532907286322</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.851358939030529</v>
@@ -32830,7 +32602,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.531832083041479</v>
+        <v>1.484132655850441</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.765989413825628</v>
@@ -32919,7 +32691,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.528348358359613</v>
+        <v>1.482139870947732</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.869315329455702</v>
@@ -33008,7 +32780,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.520434070506081</v>
+        <v>1.477225885619921</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.051743087183076</v>
@@ -33097,7 +32869,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.51976437744393</v>
+        <v>1.474317269205655</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.918771033656079</v>
@@ -33186,7 +32958,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.528641237511453</v>
+        <v>1.479984372263449</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.002197670681369</v>
@@ -33275,7 +33047,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.532817186747635</v>
+        <v>1.479524908629362</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.887142492648358</v>
@@ -33364,7 +33136,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.548698401151675</v>
+        <v>1.492880744729267</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.025649552326548</v>
@@ -33453,7 +33225,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.535348578934304</v>
+        <v>1.481315856008341</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.101750073641025</v>
@@ -33542,7 +33314,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.530308472816052</v>
+        <v>1.473776329678429</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.796417114882094</v>
@@ -33631,7 +33403,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.549116354661136</v>
+        <v>1.48816062319842</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.849630438729161</v>
@@ -33720,7 +33492,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.543469685356321</v>
+        <v>1.481378488832936</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.897851025747064</v>
@@ -33809,7 +33581,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.544984765813148</v>
+        <v>1.484674903781284</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.022667537699817</v>
@@ -33898,7 +33670,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.541403918344026</v>
+        <v>1.487514154104912</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.982469410270159</v>
@@ -33987,7 +33759,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.532926072243976</v>
+        <v>1.481614840729729</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.064655572183228</v>
@@ -34076,7 +33848,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.530449735092937</v>
+        <v>1.477459797704228</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.08338343794156</v>
@@ -34165,7 +33937,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.527752426720105</v>
+        <v>1.475725042375613</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.098966772872816</v>
@@ -34254,7 +34026,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.527139624431187</v>
+        <v>1.474723623568899</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.796948611908859</v>
@@ -34343,7 +34115,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.515103408279266</v>
+        <v>1.464520122917337</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.005426068506012</v>
@@ -34432,7 +34204,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.523706212086466</v>
+        <v>1.473369620269996</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.105393016891989</v>
@@ -34521,7 +34293,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.510159319544939</v>
+        <v>1.465389902577543</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.89877348496826</v>
@@ -34610,7 +34382,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.473196123990322</v>
+        <v>1.425693096348047</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.076636995132335</v>
@@ -34699,7 +34471,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.437539078751386</v>
+        <v>1.401419573951772</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.165258136281035</v>
@@ -34788,7 +34560,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.457491921163288</v>
+        <v>1.418945621711925</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.22641054812077</v>
@@ -34877,7 +34649,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.448698372880448</v>
+        <v>1.414140621023384</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.234173564670572</v>
@@ -34966,7 +34738,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.428885301094244</v>
+        <v>1.394923145723928</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.267447650627085</v>
@@ -35055,7 +34827,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.399225996626869</v>
+        <v>1.363094963852109</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.032995841628968</v>
@@ -35144,7 +34916,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.391957794163261</v>
+        <v>1.355926706521271</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.081267789755084</v>
@@ -35233,7 +35005,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.381052807741018</v>
+        <v>1.337692572891013</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.139356138621421</v>
@@ -35322,7 +35094,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.390454492750157</v>
+        <v>1.339879429398305</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.160732940167511</v>
@@ -35411,7 +35183,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.390552540963801</v>
+        <v>1.335481064975705</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.170241455254711</v>
@@ -35500,7 +35272,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.396043339243058</v>
+        <v>1.341208609755765</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.188563686003745</v>
@@ -35589,7 +35361,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.3932410977941</v>
+        <v>1.33768530352225</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.104579940037762</v>
@@ -35678,7 +35450,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.399621528366716</v>
+        <v>1.343532552424763</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.215686215427302</v>
@@ -35767,7 +35539,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.394177230336945</v>
+        <v>1.337379718813816</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.187074761573412</v>
@@ -35856,7 +35628,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.394949157691155</v>
+        <v>1.337958719065804</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.17857238849457</v>
@@ -35945,7 +35717,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.424371630351031</v>
+        <v>1.361685033333135</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.068958080218285</v>
@@ -36034,7 +35806,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.430089657313574</v>
+        <v>1.359788025915072</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.192521265365489</v>
@@ -36123,7 +35895,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.407683709188458</v>
+        <v>1.338554569915748</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.2469057234621</v>
@@ -36212,7 +35984,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.420544218964266</v>
+        <v>1.350600319769827</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.332155646033106</v>
@@ -36301,7 +36073,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.444194924041729</v>
+        <v>1.370549012793132</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.398367214612358</v>
@@ -36390,7 +36162,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.447975936416646</v>
+        <v>1.377110915314971</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.593228574385674</v>
@@ -36479,7 +36251,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.45167860313131</v>
+        <v>1.377633455184866</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.365473783218421</v>
@@ -36568,7 +36340,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.468045071141413</v>
+        <v>1.397663064687817</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.71471967204362</v>
@@ -36657,7 +36429,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.454292383694076</v>
+        <v>1.388729272222185</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.429699780737966</v>
@@ -36746,7 +36518,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.449577569610514</v>
+        <v>1.388206824010048</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.588057421388237</v>
@@ -36835,7 +36607,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.437023890183361</v>
+        <v>1.381690863520205</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.356514299661533</v>
@@ -36924,7 +36696,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.410913368407687</v>
+        <v>1.358848875090418</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.169159579014482</v>
@@ -37013,7 +36785,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.409838192947307</v>
+        <v>1.358041945585212</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.200970727815363</v>
@@ -37102,7 +36874,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.402880934578358</v>
+        <v>1.349822279357923</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.212439556985564</v>
@@ -37191,7 +36963,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.412769350723613</v>
+        <v>1.355528115015279</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.148494200609906</v>
@@ -37280,7 +37052,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.41097771948921</v>
+        <v>1.357297861546382</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.295580390514231</v>
@@ -37369,7 +37141,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.415655995305431</v>
+        <v>1.364645972793389</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.104127034078656</v>
@@ -37458,7 +37230,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.425154350686595</v>
+        <v>1.381380596969541</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.271645739650117</v>
@@ -37744,7 +37516,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.46537587656425</v>
+        <v>1.459170781570688</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.115568170490171</v>
@@ -37833,7 +37605,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456881596293759</v>
+        <v>1.453450881508981</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.165144027530076</v>
@@ -37922,7 +37694,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.435852266865371</v>
+        <v>1.43038696950001</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.013065939846861</v>
@@ -38011,7 +37783,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.438596207189799</v>
+        <v>1.434409592536286</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.093932459632097</v>
@@ -38100,7 +37872,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.493178884984656</v>
+        <v>1.486538163277392</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.115905955084123</v>
@@ -38189,7 +37961,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.482582894436349</v>
+        <v>1.473759107656953</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.090484632480544</v>
@@ -38278,7 +38050,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.471494361142771</v>
+        <v>1.465148499169048</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.105372020456369</v>
@@ -38367,7 +38139,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.466284383153036</v>
+        <v>1.465370815492422</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.144119566467455</v>
@@ -38456,7 +38228,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.464624123909358</v>
+        <v>1.463727997092374</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.166251554545138</v>
@@ -38545,7 +38317,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.464390064124859</v>
+        <v>1.46570517077115</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.137059054300171</v>
@@ -38634,7 +38406,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.433052744710515</v>
+        <v>1.436111413458366</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.129605246970141</v>
@@ -38723,7 +38495,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.406200841831948</v>
+        <v>1.412126408618524</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.130814231139269</v>
@@ -38812,7 +38584,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.398217202477573</v>
+        <v>1.401492471246812</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.182076564251747</v>
@@ -38901,7 +38673,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.389936083726668</v>
+        <v>1.395628137105107</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.191600831374902</v>
@@ -38990,7 +38762,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.381396938561211</v>
+        <v>1.387663414549018</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.134538282975974</v>
@@ -39079,7 +38851,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.385483737123619</v>
+        <v>1.391541991705286</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.217311889087377</v>
@@ -39168,7 +38940,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.390688671904733</v>
+        <v>1.392111652629189</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.216319236024614</v>
@@ -39257,7 +39029,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.42419892142058</v>
+        <v>1.424525141508179</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.390545162081477</v>
@@ -39346,7 +39118,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.41675384383612</v>
+        <v>1.414550307521692</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.327032980951226</v>
@@ -39435,7 +39207,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.416545530844946</v>
+        <v>1.41881191873568</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.345097861779707</v>
@@ -39524,7 +39296,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.42250562870144</v>
+        <v>1.424594794751063</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.277945517818097</v>
@@ -39613,7 +39385,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.42265327519492</v>
+        <v>1.423178231344434</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.293225265469113</v>
@@ -39702,7 +39474,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.428506004688844</v>
+        <v>1.426461951198794</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.393509293174683</v>
@@ -39791,7 +39563,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.420211863644522</v>
+        <v>1.418122816162314</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.368342195634093</v>
@@ -39880,7 +39652,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.411458249519465</v>
+        <v>1.407947707897329</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.353759648906877</v>
@@ -39969,7 +39741,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.434128190763144</v>
+        <v>1.431791003488701</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.236791029770456</v>
@@ -40058,7 +39830,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.467281129749613</v>
+        <v>1.457369280449942</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.419784219876057</v>
@@ -40147,7 +39919,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.47266031495596</v>
+        <v>1.462479973976515</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.872873953728052</v>
@@ -40236,7 +40008,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.47343330892855</v>
+        <v>1.458925018563519</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.456150271097441</v>
@@ -40325,7 +40097,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.485069330701751</v>
+        <v>1.469773077585462</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.779004867390289</v>
@@ -40414,7 +40186,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.48560874304969</v>
+        <v>1.462735861452796</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.822074979922664</v>
@@ -40503,7 +40275,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.486579369860743</v>
+        <v>1.467969718882292</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.815233442339632</v>
@@ -40592,7 +40364,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.491485070981546</v>
+        <v>1.47508323034468</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.708902046000558</v>
@@ -40681,7 +40453,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.505672324264088</v>
+        <v>1.488387785359321</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.837504325638345</v>
@@ -40770,7 +40542,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.516339590672285</v>
+        <v>1.495858240456517</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.070495982831638</v>
@@ -40859,7 +40631,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510699862768337</v>
+        <v>1.491501526675207</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.959440297853656</v>
@@ -40948,7 +40720,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52081634229375</v>
+        <v>1.490791125739515</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.942823408348528</v>
@@ -41037,7 +40809,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.533611584406326</v>
+        <v>1.503489470478389</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.041396776454998</v>
@@ -41126,7 +40898,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.537942423627283</v>
+        <v>1.504226212942269</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.936456298986742</v>
@@ -41215,7 +40987,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.547892610160008</v>
+        <v>1.514883835154098</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.925047433834222</v>
@@ -41304,7 +41076,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.542436811753586</v>
+        <v>1.507297572471392</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.042898382140743</v>
@@ -41393,7 +41165,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.537292616242581</v>
+        <v>1.505400393654287</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.161190247645469</v>
@@ -41482,7 +41254,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.553143009179957</v>
+        <v>1.51754110476189</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.80804654156178</v>
@@ -41571,7 +41343,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.559534224039461</v>
+        <v>1.523171888004133</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.171543500825222</v>
@@ -41660,7 +41432,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.544876797132078</v>
+        <v>1.514124689314621</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.015411569839269</v>
@@ -41749,7 +41521,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.541026989339411</v>
+        <v>1.508258656375116</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.981829994120468</v>
@@ -41838,7 +41610,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.533967460854848</v>
+        <v>1.504501515286532</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.987077016628661</v>
@@ -41927,7 +41699,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.5220362931964</v>
+        <v>1.495140744571572</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.943548832528527</v>
@@ -42016,7 +41788,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.520163355438512</v>
+        <v>1.48421724552302</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.868131473040981</v>
@@ -42105,7 +41877,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.504172486427464</v>
+        <v>1.469816820721552</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.596575222179458</v>
@@ -42194,7 +41966,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.515886237508874</v>
+        <v>1.471799557118216</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.70068346774577</v>
@@ -42283,7 +42055,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.500948033754683</v>
+        <v>1.465630770940895</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.886634348255202</v>
@@ -42372,7 +42144,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.495718008784442</v>
+        <v>1.461402722930133</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.847910107733397</v>
@@ -42461,7 +42233,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.483618461512015</v>
+        <v>1.447849178709117</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.654135542495538</v>
@@ -42550,7 +42322,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.472512948020547</v>
+        <v>1.440054897232349</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.682212924938313</v>
@@ -42639,7 +42411,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.464290535800486</v>
+        <v>1.434681653076055</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.590780200495323</v>
@@ -42728,7 +42500,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.46889169960445</v>
+        <v>1.428560462944392</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.606684604012977</v>
@@ -42817,7 +42589,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.46125267318316</v>
+        <v>1.41847733716631</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.647475513132721</v>
@@ -42906,7 +42678,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.459546073438382</v>
+        <v>1.419526913773606</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.725011929099068</v>
@@ -42995,7 +42767,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.466882402892736</v>
+        <v>1.425664246713128</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.591727021946782</v>
@@ -43084,7 +42856,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.470057193977069</v>
+        <v>1.423796820004307</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.73606546284079</v>
@@ -43173,7 +42945,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.470090882672078</v>
+        <v>1.418836193399815</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.59385554215762</v>
@@ -43262,7 +43034,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.473536741447151</v>
+        <v>1.420756676807396</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.770898879279586</v>
@@ -43351,7 +43123,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.493462347542028</v>
+        <v>1.435834766669356</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.35781623105125</v>
@@ -43440,7 +43212,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.490834755309635</v>
+        <v>1.428470501727665</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.487606822082386</v>
@@ -43529,7 +43301,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.477304579637804</v>
+        <v>1.423104992848154</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.49555696615878</v>
@@ -43618,7 +43390,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.483532530298396</v>
+        <v>1.426024431293137</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.827115123282351</v>
@@ -43707,7 +43479,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.491660262765313</v>
+        <v>1.433745878644</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.629420859823266</v>
@@ -43796,7 +43568,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.49132682846769</v>
+        <v>1.432907188262643</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.665130711082726</v>
@@ -43885,7 +43657,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.494669952733522</v>
+        <v>1.432741054081903</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.82276801292847</v>
@@ -43974,7 +43746,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.492905763190657</v>
+        <v>1.435206375288501</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.480471734858875</v>
@@ -44063,7 +43835,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.475210529341178</v>
+        <v>1.423411279913968</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.84508521231104</v>
@@ -44152,7 +43924,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.475104370969824</v>
+        <v>1.426787675416311</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.873683622755354</v>
@@ -44241,7 +44013,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.464446602121942</v>
+        <v>1.419192396739916</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.751341366625886</v>
@@ -44330,7 +44102,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.446638512143351</v>
+        <v>1.400217036775312</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.413176627447401</v>
@@ -44419,7 +44191,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.438414958849743</v>
+        <v>1.395781390582167</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.489707240323101</v>
@@ -44508,7 +44280,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.444035607889202</v>
+        <v>1.406768351333889</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.442637305461706</v>
@@ -44597,7 +44369,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.441067924870772</v>
+        <v>1.405246952800474</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.472348713460418</v>
@@ -44686,7 +44458,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.415370734080877</v>
+        <v>1.387158579874364</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.441644910937278</v>
@@ -44775,7 +44547,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.428201979825159</v>
+        <v>1.404328670926199</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.416335403057646</v>
@@ -44864,7 +44636,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.428589955449558</v>
+        <v>1.409539530901942</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.510010224362228</v>
@@ -45150,7 +44922,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.539429012659805</v>
+        <v>1.552341939949784</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.323461437396331</v>
@@ -45239,7 +45011,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.543225776257273</v>
+        <v>1.559118879625825</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.419550799824105</v>
@@ -45328,7 +45100,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.573654056878037</v>
+        <v>1.581238516359319</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.594976262729651</v>
@@ -45417,7 +45189,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.567619615359231</v>
+        <v>1.57132703969498</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.464906742682601</v>
@@ -45506,7 +45278,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.573633438453723</v>
+        <v>1.57658127270848</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.172254592086766</v>
@@ -45595,7 +45367,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.589555183971117</v>
+        <v>1.585517349430548</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.443569108603348</v>
@@ -45684,7 +45456,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.549000170871723</v>
+        <v>1.548271062273991</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.302444402398742</v>
@@ -45773,7 +45545,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.540500248514186</v>
+        <v>1.540814003932257</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.377182817646262</v>
@@ -45862,7 +45634,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.542243086619731</v>
+        <v>1.544312744451284</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.35092275864022</v>
@@ -45951,7 +45723,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.536862543921247</v>
+        <v>1.538102847672312</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.280886651383147</v>
@@ -46040,7 +45812,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.536867572049163</v>
+        <v>1.534452590002848</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.3204629450882</v>
@@ -46129,7 +45901,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.536378440073656</v>
+        <v>1.533938107528599</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.378117632816242</v>
@@ -46218,7 +45990,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544156286163991</v>
+        <v>1.539066290344487</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.37591678942517</v>
@@ -46307,7 +46079,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.522117395496517</v>
+        <v>1.513473767274182</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.426882216559632</v>
@@ -46396,7 +46168,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.495175031853715</v>
+        <v>1.494318083704423</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.325134508809099</v>
@@ -46485,7 +46257,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.492662784229691</v>
+        <v>1.491221280714779</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.432818141822104</v>
@@ -46574,7 +46346,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.495855058539711</v>
+        <v>1.490853704428858</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.403252413248545</v>
@@ -46663,7 +46435,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.48950270066858</v>
+        <v>1.488265300057275</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.376414240311844</v>
@@ -46752,7 +46524,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.490864846634315</v>
+        <v>1.489757328666306</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.362383812839702</v>
@@ -46841,7 +46613,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.466944975349631</v>
+        <v>1.464648272245277</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.336606536727221</v>
@@ -46930,7 +46702,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.46299931153741</v>
+        <v>1.464875852789961</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.484298067260781</v>
@@ -47019,7 +46791,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.480607784484869</v>
+        <v>1.486530584200567</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.516539336547646</v>
@@ -47108,7 +46880,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.478796130425643</v>
+        <v>1.486250898138623</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.361227884977328</v>
@@ -47197,7 +46969,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.466957750740327</v>
+        <v>1.472216064169184</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.387226833331351</v>
@@ -47286,7 +47058,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.453883610943554</v>
+        <v>1.460196333298664</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.31181957066236</v>
@@ -47375,7 +47147,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.452971774194443</v>
+        <v>1.459284034422266</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.261152286542613</v>
@@ -47464,7 +47236,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.442605476944103</v>
+        <v>1.448095799913238</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.454061117973407</v>
@@ -47553,7 +47325,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.432368846170292</v>
+        <v>1.440106963550921</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.418714870830541</v>
@@ -47642,7 +47414,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.454571512725793</v>
+        <v>1.454727385427047</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.213901748775339</v>
@@ -47731,7 +47503,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.45414508017759</v>
+        <v>1.450115752376763</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.401622410269712</v>
@@ -47820,7 +47592,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.442593004200746</v>
+        <v>1.436895967810995</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.287428217772452</v>
@@ -47909,7 +47681,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.446275168790043</v>
+        <v>1.437547604183595</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.311094905420664</v>
@@ -47998,7 +47770,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.450407460014757</v>
+        <v>1.439733199894646</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.364842990943462</v>
@@ -48087,7 +47859,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.471455534150947</v>
+        <v>1.452518278734818</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.411323102578264</v>
@@ -48176,7 +47948,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.503067521496839</v>
+        <v>1.479794062492133</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.443866207521809</v>
@@ -48265,7 +48037,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.487448315320647</v>
+        <v>1.467858726979402</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.287574318797766</v>
@@ -48354,7 +48126,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.48944901764136</v>
+        <v>1.463592402322162</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.311375744759063</v>
@@ -48443,7 +48215,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.504865361685859</v>
+        <v>1.467842960298072</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.321153022603209</v>
@@ -48532,7 +48304,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.513392709428169</v>
+        <v>1.46568220329521</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.378189358968332</v>
@@ -48621,7 +48393,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.469835425933308</v>
+        <v>1.436116855961252</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.271262286857417</v>
@@ -48710,7 +48482,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.457993606982927</v>
+        <v>1.42828632639371</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.282412596866403</v>
@@ -48799,7 +48571,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.465796248817472</v>
+        <v>1.436222760246594</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.135587506618402</v>
@@ -48888,7 +48660,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.459499584162693</v>
+        <v>1.428497738899225</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.25675879888282</v>
@@ -48977,7 +48749,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.467205178602602</v>
+        <v>1.43594880658075</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.258861008331054</v>
@@ -49066,7 +48838,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.465522325982688</v>
+        <v>1.43949367475392</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.430979591210636</v>
@@ -49155,7 +48927,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.468477136570146</v>
+        <v>1.436474163597938</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.321359276524066</v>
@@ -49244,7 +49016,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.464069991665873</v>
+        <v>1.436279911211994</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.298708766623788</v>
@@ -49333,7 +49105,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.452910953440758</v>
+        <v>1.424322776196301</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.241104141645258</v>
@@ -49422,7 +49194,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.428068383457725</v>
+        <v>1.392979797084739</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.079981345606725</v>
@@ -49511,7 +49283,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.378774828040887</v>
+        <v>1.354779696633178</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.131293278153915</v>
@@ -49600,7 +49372,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.388508808445435</v>
+        <v>1.360929018310773</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.182105119519023</v>
@@ -49689,7 +49461,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.364604433467784</v>
+        <v>1.340968512097207</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.21298875135797</v>
@@ -49778,7 +49550,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.359344770500007</v>
+        <v>1.337931672697616</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.234894858807266</v>
@@ -49867,7 +49639,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.351154777749015</v>
+        <v>1.323571255295225</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.885299126545215</v>
@@ -49956,7 +49728,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.358590682449341</v>
+        <v>1.332026392768368</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.104294375553074</v>
@@ -50045,7 +49817,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.332392667592553</v>
+        <v>1.30238361864922</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.195239601967455</v>
@@ -50134,7 +49906,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.344978382861171</v>
+        <v>1.305808978243662</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.172445088377043</v>
@@ -50223,7 +49995,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.358856758287458</v>
+        <v>1.314659949202731</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.209371291700952</v>
@@ -50312,7 +50084,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.35848547172545</v>
+        <v>1.315500528951126</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.176755062031907</v>
@@ -50401,7 +50173,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.34100009398579</v>
+        <v>1.299811876513179</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.210217509085882</v>
@@ -50490,7 +50262,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.340270670450533</v>
+        <v>1.299923295735121</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.252318201126394</v>
@@ -50579,7 +50351,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.343691607762699</v>
+        <v>1.301048189801495</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.220193177701462</v>
@@ -50668,7 +50440,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.345776814008823</v>
+        <v>1.303772008633093</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.203491635983839</v>
@@ -50757,7 +50529,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.376173114918151</v>
+        <v>1.328454550554566</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.200047666935917</v>
@@ -50846,7 +50618,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.397100177348474</v>
+        <v>1.342626776964558</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.215592590048129</v>
@@ -50935,7 +50707,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.378551240875953</v>
+        <v>1.327450668760163</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.198124370585228</v>
@@ -51024,7 +50796,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.393223486021515</v>
+        <v>1.339905736521239</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.319774388816526</v>
@@ -51113,7 +50885,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.403374717841273</v>
+        <v>1.346398906978401</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.275101641668015</v>
@@ -51202,7 +50974,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.399610453207814</v>
+        <v>1.34538242609843</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.493930344135651</v>
@@ -51291,7 +51063,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.405009450887168</v>
+        <v>1.344858942749143</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.094500384776762</v>
@@ -51380,7 +51152,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.412591689399835</v>
+        <v>1.360955689056609</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.589558186426397</v>
@@ -51469,7 +51241,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.399656582138026</v>
+        <v>1.348484152985499</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.239757921874376</v>
@@ -51558,7 +51330,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.395504232115697</v>
+        <v>1.347146022726457</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.31819394656058</v>
@@ -51647,7 +51419,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.385488543697473</v>
+        <v>1.339883825602656</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.103407861150371</v>
@@ -51736,7 +51508,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.382245921242441</v>
+        <v>1.335622177882129</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.243348701453338</v>
@@ -51825,7 +51597,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.380468754516281</v>
+        <v>1.333970123588849</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.289090568108938</v>
@@ -51914,7 +51686,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.377926409020396</v>
+        <v>1.328603357368889</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.321473773271234</v>
@@ -52003,7 +51775,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.385924584567237</v>
+        <v>1.334994300771441</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.209034012424207</v>
@@ -52092,7 +51864,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.372808756255314</v>
+        <v>1.328767416164521</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.332458134304879</v>
@@ -52181,7 +51953,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.375044423492958</v>
+        <v>1.332266143127495</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.18624897405873</v>
@@ -52270,7 +52042,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.382560024373011</v>
+        <v>1.344626864090859</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.286411525057222</v>
